--- a/development/metadata/SurveyColumnID.xlsx
+++ b/development/metadata/SurveyColumnID.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/rdt0029_auburn_edu/Documents/OtherProjects/WildBioKAP/Management/Metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylee\OneDrive\Desktop\REPOS\wildlifeHealthKAP\development\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F02A3F6F-DB8D-4063-BAF9-8CC0BFAC6EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62102D2A-901B-48C5-B930-C9342DFCA4FA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D462A-0EA2-4110-8A3A-0D328564056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
+    <sheet name="metadata" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="177">
   <si>
     <t>13+ COUNTIES = 1</t>
   </si>
@@ -144,9 +145,6 @@
     <t>EHD</t>
   </si>
   <si>
-    <t>PPREREQ</t>
-  </si>
-  <si>
     <t>BATS</t>
   </si>
   <si>
@@ -348,12 +346,6 @@
     <t>FACTOR</t>
   </si>
   <si>
-    <t>VALUE=0</t>
-  </si>
-  <si>
-    <t>VALUE=1</t>
-  </si>
-  <si>
     <t>COLUMN</t>
   </si>
   <si>
@@ -463,6 +455,108 @@
   </si>
   <si>
     <t>MORE THAN/ = 9</t>
+  </si>
+  <si>
+    <t>ZIPCODE</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>ETHNICITY</t>
+  </si>
+  <si>
+    <t>ACTIVITY</t>
+  </si>
+  <si>
+    <t>AFFILIATE</t>
+  </si>
+  <si>
+    <t>PPEREQ</t>
+  </si>
+  <si>
+    <t>QSCORE</t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Unique response ID</t>
+  </si>
+  <si>
+    <t>Percent of survey finished</t>
+  </si>
+  <si>
+    <t>Number of Qs answered</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Race of respondent</t>
+  </si>
+  <si>
+    <t>respondent date of birth</t>
+  </si>
+  <si>
+    <t>Residence of respondent</t>
+  </si>
+  <si>
+    <t>Y/N hispanic, latin</t>
+  </si>
+  <si>
+    <t>Respondent primary role</t>
+  </si>
+  <si>
+    <t>Respondent affiliation/position</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>numerical columns for summary only</t>
+  </si>
+  <si>
+    <t>categorical columns for summary only</t>
+  </si>
+  <si>
+    <t>columns for spatial summary/analysis</t>
+  </si>
+  <si>
+    <t>response general information</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description for value = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">name of column in processed data </t>
+  </si>
+  <si>
+    <t>how data was split into binary</t>
+  </si>
+  <si>
+    <t>value used for binary cutoff</t>
+  </si>
+  <si>
+    <t>interpretation of column</t>
   </si>
 </sst>
 </file>
@@ -509,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +613,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,17 +673,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -708,17 +883,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B6662BA-5121-4AF4-8CEE-B7D98CC4A35D}" name="Table1" displayName="Table1" ref="A1:F71" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F71" xr:uid="{28725ECF-6729-48C9-AF9D-5AD9407099B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B6662BA-5121-4AF4-8CEE-B7D98CC4A35D}" name="Table1" displayName="Table1" ref="A1:F80" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:F80" xr:uid="{28725ECF-6729-48C9-AF9D-5AD9407099B7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
+    <sortCondition sortBy="cellColor" ref="A1:A80" dxfId="1"/>
+  </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="VALUE=1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{92ECA29B-647E-4683-8D50-36AE58DAB853}" name="VALUE=0" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{15F32D82-8AF5-4831-9EBD-457C30C24F74}" name="FACTOR" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{92ECA29B-647E-4683-8D50-36AE58DAB853}" name="0" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{15F32D82-8AF5-4831-9EBD-457C30C24F74}" name="FACTOR" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{16A740A7-F042-493E-8C34-6527396A2C04}" name="Table4" displayName="Table4" ref="B2:C6" totalsRowShown="0">
+  <autoFilter ref="B2:C6" xr:uid="{16A740A7-F042-493E-8C34-6527396A2C04}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{900EB2C1-0CAF-430B-B4BF-3C8388B2C87C}" name="Color"/>
+    <tableColumn id="2" xr3:uid="{A27A0192-FB51-41E9-BC1C-293A18E4B80A}" name="Definition"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A5EB4C7-7955-46C8-B082-15F77E62433C}" name="Table5" displayName="Table5" ref="B9:C15" totalsRowShown="0">
+  <autoFilter ref="B9:C15" xr:uid="{7A5EB4C7-7955-46C8-B082-15F77E62433C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C8D0436A-4A27-410C-B532-2A7F95695745}" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DE9BA3A9-20C6-483F-B09A-3EBC3866A095}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -985,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC7358D-37CF-4D2A-9AD6-44FF88E1519F}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:CK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -999,37 +1199,38 @@
     <col min="4" max="4" width="23.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.06640625" style="1" customWidth="1"/>
+    <col min="7" max="89" width="9.06640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -1038,18 +1239,18 @@
         <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1057,27 +1258,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1091,7 +1292,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -1105,7 +1306,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
@@ -1119,27 +1320,27 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -1153,47 +1354,47 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -1205,12 +1406,12 @@
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1219,18 +1420,18 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3">
         <v>0.5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -1247,7 +1448,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -1264,7 +1465,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -1276,21 +1477,21 @@
         <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1301,13 +1502,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -1316,12 +1517,12 @@
         <v>0.75</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -1335,13 +1536,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
@@ -1350,18 +1551,18 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1370,18 +1571,18 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1390,18 +1591,18 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -1410,18 +1611,18 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1430,18 +1631,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -1450,18 +1651,18 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
@@ -1470,18 +1671,18 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1490,52 +1691,52 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>24</v>
@@ -1555,7 +1756,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>24</v>
@@ -1575,7 +1776,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>24</v>
@@ -1889,7 +2090,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>15</v>
@@ -1907,9 +2108,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
@@ -1927,9 +2128,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
@@ -1947,9 +2148,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
@@ -1967,9 +2168,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
@@ -1987,9 +2188,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
@@ -2007,9 +2208,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
@@ -2027,9 +2228,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
@@ -2047,9 +2248,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>8</v>
@@ -2067,9 +2268,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>8</v>
@@ -2087,9 +2288,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
@@ -2107,9 +2308,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>8</v>
@@ -2127,9 +2328,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
@@ -2147,9 +2348,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>3</v>
@@ -2167,191 +2368,1577 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="24"/>
+      <c r="AI62" s="24"/>
+      <c r="AJ62" s="24"/>
+      <c r="AK62" s="24"/>
+      <c r="AL62" s="24"/>
+      <c r="AM62" s="24"/>
+      <c r="AN62" s="24"/>
+      <c r="AO62" s="24"/>
+      <c r="AP62" s="24"/>
+      <c r="AQ62" s="24"/>
+      <c r="AR62" s="24"/>
+      <c r="AS62" s="24"/>
+      <c r="AT62" s="24"/>
+      <c r="AU62" s="24"/>
+      <c r="AV62" s="24"/>
+      <c r="AW62" s="24"/>
+      <c r="AX62" s="24"/>
+      <c r="AY62" s="24"/>
+      <c r="AZ62" s="24"/>
+      <c r="BA62" s="24"/>
+      <c r="BB62" s="24"/>
+      <c r="BC62" s="24"/>
+      <c r="BD62" s="24"/>
+      <c r="BE62" s="24"/>
+      <c r="BF62" s="24"/>
+      <c r="BG62" s="24"/>
+      <c r="BH62" s="24"/>
+      <c r="BI62" s="24"/>
+      <c r="BJ62" s="24"/>
+      <c r="BK62" s="24"/>
+      <c r="BL62" s="24"/>
+      <c r="BM62" s="24"/>
+      <c r="BN62" s="24"/>
+      <c r="BO62" s="24"/>
+      <c r="BP62" s="24"/>
+      <c r="BQ62" s="24"/>
+      <c r="BR62" s="24"/>
+      <c r="BS62" s="24"/>
+      <c r="BT62" s="24"/>
+      <c r="BU62" s="24"/>
+      <c r="BV62" s="24"/>
+      <c r="BW62" s="24"/>
+      <c r="BX62" s="24"/>
+      <c r="BY62" s="24"/>
+      <c r="BZ62" s="24"/>
+      <c r="CA62" s="24"/>
+      <c r="CB62" s="24"/>
+      <c r="CC62" s="24"/>
+      <c r="CD62" s="24"/>
+      <c r="CE62" s="24"/>
+      <c r="CF62" s="24"/>
+      <c r="CG62" s="24"/>
+      <c r="CH62" s="24"/>
+      <c r="CI62" s="24"/>
+      <c r="CJ62" s="24"/>
+      <c r="CK62" s="24"/>
+    </row>
+    <row r="63" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
+      <c r="AI63" s="24"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="24"/>
+      <c r="AL63" s="24"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
+      <c r="AQ63" s="24"/>
+      <c r="AR63" s="24"/>
+      <c r="AS63" s="24"/>
+      <c r="AT63" s="24"/>
+      <c r="AU63" s="24"/>
+      <c r="AV63" s="24"/>
+      <c r="AW63" s="24"/>
+      <c r="AX63" s="24"/>
+      <c r="AY63" s="24"/>
+      <c r="AZ63" s="24"/>
+      <c r="BA63" s="24"/>
+      <c r="BB63" s="24"/>
+      <c r="BC63" s="24"/>
+      <c r="BD63" s="24"/>
+      <c r="BE63" s="24"/>
+      <c r="BF63" s="24"/>
+      <c r="BG63" s="24"/>
+      <c r="BH63" s="24"/>
+      <c r="BI63" s="24"/>
+      <c r="BJ63" s="24"/>
+      <c r="BK63" s="24"/>
+      <c r="BL63" s="24"/>
+      <c r="BM63" s="24"/>
+      <c r="BN63" s="24"/>
+      <c r="BO63" s="24"/>
+      <c r="BP63" s="24"/>
+      <c r="BQ63" s="24"/>
+      <c r="BR63" s="24"/>
+      <c r="BS63" s="24"/>
+      <c r="BT63" s="24"/>
+      <c r="BU63" s="24"/>
+      <c r="BV63" s="24"/>
+      <c r="BW63" s="24"/>
+      <c r="BX63" s="24"/>
+      <c r="BY63" s="24"/>
+      <c r="BZ63" s="24"/>
+      <c r="CA63" s="24"/>
+      <c r="CB63" s="24"/>
+      <c r="CC63" s="24"/>
+      <c r="CD63" s="24"/>
+      <c r="CE63" s="24"/>
+      <c r="CF63" s="24"/>
+      <c r="CG63" s="24"/>
+      <c r="CH63" s="24"/>
+      <c r="CI63" s="24"/>
+      <c r="CJ63" s="24"/>
+      <c r="CK63" s="24"/>
+    </row>
+    <row r="64" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="24"/>
+      <c r="AH64" s="24"/>
+      <c r="AI64" s="24"/>
+      <c r="AJ64" s="24"/>
+      <c r="AK64" s="24"/>
+      <c r="AL64" s="24"/>
+      <c r="AM64" s="24"/>
+      <c r="AN64" s="24"/>
+      <c r="AO64" s="24"/>
+      <c r="AP64" s="24"/>
+      <c r="AQ64" s="24"/>
+      <c r="AR64" s="24"/>
+      <c r="AS64" s="24"/>
+      <c r="AT64" s="24"/>
+      <c r="AU64" s="24"/>
+      <c r="AV64" s="24"/>
+      <c r="AW64" s="24"/>
+      <c r="AX64" s="24"/>
+      <c r="AY64" s="24"/>
+      <c r="AZ64" s="24"/>
+      <c r="BA64" s="24"/>
+      <c r="BB64" s="24"/>
+      <c r="BC64" s="24"/>
+      <c r="BD64" s="24"/>
+      <c r="BE64" s="24"/>
+      <c r="BF64" s="24"/>
+      <c r="BG64" s="24"/>
+      <c r="BH64" s="24"/>
+      <c r="BI64" s="24"/>
+      <c r="BJ64" s="24"/>
+      <c r="BK64" s="24"/>
+      <c r="BL64" s="24"/>
+      <c r="BM64" s="24"/>
+      <c r="BN64" s="24"/>
+      <c r="BO64" s="24"/>
+      <c r="BP64" s="24"/>
+      <c r="BQ64" s="24"/>
+      <c r="BR64" s="24"/>
+      <c r="BS64" s="24"/>
+      <c r="BT64" s="24"/>
+      <c r="BU64" s="24"/>
+      <c r="BV64" s="24"/>
+      <c r="BW64" s="24"/>
+      <c r="BX64" s="24"/>
+      <c r="BY64" s="24"/>
+      <c r="BZ64" s="24"/>
+      <c r="CA64" s="24"/>
+      <c r="CB64" s="24"/>
+      <c r="CC64" s="24"/>
+      <c r="CD64" s="24"/>
+      <c r="CE64" s="24"/>
+      <c r="CF64" s="24"/>
+      <c r="CG64" s="24"/>
+      <c r="CH64" s="24"/>
+      <c r="CI64" s="24"/>
+      <c r="CJ64" s="24"/>
+      <c r="CK64" s="24"/>
+    </row>
+    <row r="65" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
+      <c r="AI65" s="24"/>
+      <c r="AJ65" s="24"/>
+      <c r="AK65" s="24"/>
+      <c r="AL65" s="24"/>
+      <c r="AM65" s="24"/>
+      <c r="AN65" s="24"/>
+      <c r="AO65" s="24"/>
+      <c r="AP65" s="24"/>
+      <c r="AQ65" s="24"/>
+      <c r="AR65" s="24"/>
+      <c r="AS65" s="24"/>
+      <c r="AT65" s="24"/>
+      <c r="AU65" s="24"/>
+      <c r="AV65" s="24"/>
+      <c r="AW65" s="24"/>
+      <c r="AX65" s="24"/>
+      <c r="AY65" s="24"/>
+      <c r="AZ65" s="24"/>
+      <c r="BA65" s="24"/>
+      <c r="BB65" s="24"/>
+      <c r="BC65" s="24"/>
+      <c r="BD65" s="24"/>
+      <c r="BE65" s="24"/>
+      <c r="BF65" s="24"/>
+      <c r="BG65" s="24"/>
+      <c r="BH65" s="24"/>
+      <c r="BI65" s="24"/>
+      <c r="BJ65" s="24"/>
+      <c r="BK65" s="24"/>
+      <c r="BL65" s="24"/>
+      <c r="BM65" s="24"/>
+      <c r="BN65" s="24"/>
+      <c r="BO65" s="24"/>
+      <c r="BP65" s="24"/>
+      <c r="BQ65" s="24"/>
+      <c r="BR65" s="24"/>
+      <c r="BS65" s="24"/>
+      <c r="BT65" s="24"/>
+      <c r="BU65" s="24"/>
+      <c r="BV65" s="24"/>
+      <c r="BW65" s="24"/>
+      <c r="BX65" s="24"/>
+      <c r="BY65" s="24"/>
+      <c r="BZ65" s="24"/>
+      <c r="CA65" s="24"/>
+      <c r="CB65" s="24"/>
+      <c r="CC65" s="24"/>
+      <c r="CD65" s="24"/>
+      <c r="CE65" s="24"/>
+      <c r="CF65" s="24"/>
+      <c r="CG65" s="24"/>
+      <c r="CH65" s="24"/>
+      <c r="CI65" s="24"/>
+      <c r="CJ65" s="24"/>
+      <c r="CK65" s="24"/>
+    </row>
+    <row r="66" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="24"/>
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="24"/>
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="24"/>
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="24"/>
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="24"/>
+      <c r="AY66" s="24"/>
+      <c r="AZ66" s="24"/>
+      <c r="BA66" s="24"/>
+      <c r="BB66" s="24"/>
+      <c r="BC66" s="24"/>
+      <c r="BD66" s="24"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="24"/>
+      <c r="BG66" s="24"/>
+      <c r="BH66" s="24"/>
+      <c r="BI66" s="24"/>
+      <c r="BJ66" s="24"/>
+      <c r="BK66" s="24"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="24"/>
+      <c r="BO66" s="24"/>
+      <c r="BP66" s="24"/>
+      <c r="BQ66" s="24"/>
+      <c r="BR66" s="24"/>
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="24"/>
+      <c r="BU66" s="24"/>
+      <c r="BV66" s="24"/>
+      <c r="BW66" s="24"/>
+      <c r="BX66" s="24"/>
+      <c r="BY66" s="24"/>
+      <c r="BZ66" s="24"/>
+      <c r="CA66" s="24"/>
+      <c r="CB66" s="24"/>
+      <c r="CC66" s="24"/>
+      <c r="CD66" s="24"/>
+      <c r="CE66" s="24"/>
+      <c r="CF66" s="24"/>
+      <c r="CG66" s="24"/>
+      <c r="CH66" s="24"/>
+      <c r="CI66" s="24"/>
+      <c r="CJ66" s="24"/>
+      <c r="CK66" s="24"/>
+    </row>
+    <row r="67" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A67" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A68" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A69" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A70" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A71" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="72" spans="1:89" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="24"/>
+      <c r="U72" s="24"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="24"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="24"/>
+      <c r="AI72" s="24"/>
+      <c r="AJ72" s="24"/>
+      <c r="AK72" s="24"/>
+      <c r="AL72" s="24"/>
+      <c r="AM72" s="24"/>
+      <c r="AN72" s="24"/>
+      <c r="AO72" s="24"/>
+      <c r="AP72" s="24"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="24"/>
+      <c r="AS72" s="24"/>
+      <c r="AT72" s="24"/>
+      <c r="AU72" s="24"/>
+      <c r="AV72" s="24"/>
+      <c r="AW72" s="24"/>
+      <c r="AX72" s="24"/>
+      <c r="AY72" s="24"/>
+      <c r="AZ72" s="24"/>
+      <c r="BA72" s="24"/>
+      <c r="BB72" s="24"/>
+      <c r="BC72" s="24"/>
+      <c r="BD72" s="24"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="24"/>
+      <c r="BG72" s="24"/>
+      <c r="BH72" s="24"/>
+      <c r="BI72" s="24"/>
+      <c r="BJ72" s="24"/>
+      <c r="BK72" s="24"/>
+      <c r="BL72" s="24"/>
+      <c r="BM72" s="24"/>
+      <c r="BN72" s="24"/>
+      <c r="BO72" s="24"/>
+      <c r="BP72" s="24"/>
+      <c r="BQ72" s="24"/>
+      <c r="BR72" s="24"/>
+      <c r="BS72" s="24"/>
+      <c r="BT72" s="24"/>
+      <c r="BU72" s="24"/>
+      <c r="BV72" s="24"/>
+      <c r="BW72" s="24"/>
+      <c r="BX72" s="24"/>
+      <c r="BY72" s="24"/>
+      <c r="BZ72" s="24"/>
+      <c r="CA72" s="24"/>
+      <c r="CB72" s="24"/>
+      <c r="CC72" s="24"/>
+      <c r="CD72" s="24"/>
+      <c r="CE72" s="24"/>
+      <c r="CF72" s="24"/>
+      <c r="CG72" s="24"/>
+      <c r="CH72" s="24"/>
+      <c r="CI72" s="24"/>
+      <c r="CJ72" s="24"/>
+      <c r="CK72" s="24"/>
+    </row>
+    <row r="73" spans="1:89" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="24"/>
+      <c r="U73" s="24"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="24"/>
+      <c r="AB73" s="24"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="24"/>
+      <c r="AI73" s="24"/>
+      <c r="AJ73" s="24"/>
+      <c r="AK73" s="24"/>
+      <c r="AL73" s="24"/>
+      <c r="AM73" s="24"/>
+      <c r="AN73" s="24"/>
+      <c r="AO73" s="24"/>
+      <c r="AP73" s="24"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="24"/>
+      <c r="AS73" s="24"/>
+      <c r="AT73" s="24"/>
+      <c r="AU73" s="24"/>
+      <c r="AV73" s="24"/>
+      <c r="AW73" s="24"/>
+      <c r="AX73" s="24"/>
+      <c r="AY73" s="24"/>
+      <c r="AZ73" s="24"/>
+      <c r="BA73" s="24"/>
+      <c r="BB73" s="24"/>
+      <c r="BC73" s="24"/>
+      <c r="BD73" s="24"/>
+      <c r="BE73" s="24"/>
+      <c r="BF73" s="24"/>
+      <c r="BG73" s="24"/>
+      <c r="BH73" s="24"/>
+      <c r="BI73" s="24"/>
+      <c r="BJ73" s="24"/>
+      <c r="BK73" s="24"/>
+      <c r="BL73" s="24"/>
+      <c r="BM73" s="24"/>
+      <c r="BN73" s="24"/>
+      <c r="BO73" s="24"/>
+      <c r="BP73" s="24"/>
+      <c r="BQ73" s="24"/>
+      <c r="BR73" s="24"/>
+      <c r="BS73" s="24"/>
+      <c r="BT73" s="24"/>
+      <c r="BU73" s="24"/>
+      <c r="BV73" s="24"/>
+      <c r="BW73" s="24"/>
+      <c r="BX73" s="24"/>
+      <c r="BY73" s="24"/>
+      <c r="BZ73" s="24"/>
+      <c r="CA73" s="24"/>
+      <c r="CB73" s="24"/>
+      <c r="CC73" s="24"/>
+      <c r="CD73" s="24"/>
+      <c r="CE73" s="24"/>
+      <c r="CF73" s="24"/>
+      <c r="CG73" s="24"/>
+      <c r="CH73" s="24"/>
+      <c r="CI73" s="24"/>
+      <c r="CJ73" s="24"/>
+      <c r="CK73" s="24"/>
+    </row>
+    <row r="74" spans="1:89" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="24"/>
+      <c r="U74" s="24"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="24"/>
+      <c r="AB74" s="24"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="24"/>
+      <c r="AG74" s="24"/>
+      <c r="AH74" s="24"/>
+      <c r="AI74" s="24"/>
+      <c r="AJ74" s="24"/>
+      <c r="AK74" s="24"/>
+      <c r="AL74" s="24"/>
+      <c r="AM74" s="24"/>
+      <c r="AN74" s="24"/>
+      <c r="AO74" s="24"/>
+      <c r="AP74" s="24"/>
+      <c r="AQ74" s="24"/>
+      <c r="AR74" s="24"/>
+      <c r="AS74" s="24"/>
+      <c r="AT74" s="24"/>
+      <c r="AU74" s="24"/>
+      <c r="AV74" s="24"/>
+      <c r="AW74" s="24"/>
+      <c r="AX74" s="24"/>
+      <c r="AY74" s="24"/>
+      <c r="AZ74" s="24"/>
+      <c r="BA74" s="24"/>
+      <c r="BB74" s="24"/>
+      <c r="BC74" s="24"/>
+      <c r="BD74" s="24"/>
+      <c r="BE74" s="24"/>
+      <c r="BF74" s="24"/>
+      <c r="BG74" s="24"/>
+      <c r="BH74" s="24"/>
+      <c r="BI74" s="24"/>
+      <c r="BJ74" s="24"/>
+      <c r="BK74" s="24"/>
+      <c r="BL74" s="24"/>
+      <c r="BM74" s="24"/>
+      <c r="BN74" s="24"/>
+      <c r="BO74" s="24"/>
+      <c r="BP74" s="24"/>
+      <c r="BQ74" s="24"/>
+      <c r="BR74" s="24"/>
+      <c r="BS74" s="24"/>
+      <c r="BT74" s="24"/>
+      <c r="BU74" s="24"/>
+      <c r="BV74" s="24"/>
+      <c r="BW74" s="24"/>
+      <c r="BX74" s="24"/>
+      <c r="BY74" s="24"/>
+      <c r="BZ74" s="24"/>
+      <c r="CA74" s="24"/>
+      <c r="CB74" s="24"/>
+      <c r="CC74" s="24"/>
+      <c r="CD74" s="24"/>
+      <c r="CE74" s="24"/>
+      <c r="CF74" s="24"/>
+      <c r="CG74" s="24"/>
+      <c r="CH74" s="24"/>
+      <c r="CI74" s="24"/>
+      <c r="CJ74" s="24"/>
+      <c r="CK74" s="24"/>
+    </row>
+    <row r="75" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="24"/>
+      <c r="AM75" s="24"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="24"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="24"/>
+      <c r="AT75" s="24"/>
+      <c r="AU75" s="24"/>
+      <c r="AV75" s="24"/>
+      <c r="AW75" s="24"/>
+      <c r="AX75" s="24"/>
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="24"/>
+      <c r="BA75" s="24"/>
+      <c r="BB75" s="24"/>
+      <c r="BC75" s="24"/>
+      <c r="BD75" s="24"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="24"/>
+      <c r="BG75" s="24"/>
+      <c r="BH75" s="24"/>
+      <c r="BI75" s="24"/>
+      <c r="BJ75" s="24"/>
+      <c r="BK75" s="24"/>
+      <c r="BL75" s="24"/>
+      <c r="BM75" s="24"/>
+      <c r="BN75" s="24"/>
+      <c r="BO75" s="24"/>
+      <c r="BP75" s="24"/>
+      <c r="BQ75" s="24"/>
+      <c r="BR75" s="24"/>
+      <c r="BS75" s="24"/>
+      <c r="BT75" s="24"/>
+      <c r="BU75" s="24"/>
+      <c r="BV75" s="24"/>
+      <c r="BW75" s="24"/>
+      <c r="BX75" s="24"/>
+      <c r="BY75" s="24"/>
+      <c r="BZ75" s="24"/>
+      <c r="CA75" s="24"/>
+      <c r="CB75" s="24"/>
+      <c r="CC75" s="24"/>
+      <c r="CD75" s="24"/>
+      <c r="CE75" s="24"/>
+      <c r="CF75" s="24"/>
+      <c r="CG75" s="24"/>
+      <c r="CH75" s="24"/>
+      <c r="CI75" s="24"/>
+      <c r="CJ75" s="24"/>
+      <c r="CK75" s="24"/>
+    </row>
+    <row r="76" spans="1:89" s="15" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="24"/>
+      <c r="U76" s="24"/>
+      <c r="V76" s="24"/>
+      <c r="W76" s="24"/>
+      <c r="X76" s="24"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="24"/>
+      <c r="AB76" s="24"/>
+      <c r="AC76" s="24"/>
+      <c r="AD76" s="24"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="24"/>
+      <c r="AI76" s="24"/>
+      <c r="AJ76" s="24"/>
+      <c r="AK76" s="24"/>
+      <c r="AL76" s="24"/>
+      <c r="AM76" s="24"/>
+      <c r="AN76" s="24"/>
+      <c r="AO76" s="24"/>
+      <c r="AP76" s="24"/>
+      <c r="AQ76" s="24"/>
+      <c r="AR76" s="24"/>
+      <c r="AS76" s="24"/>
+      <c r="AT76" s="24"/>
+      <c r="AU76" s="24"/>
+      <c r="AV76" s="24"/>
+      <c r="AW76" s="24"/>
+      <c r="AX76" s="24"/>
+      <c r="AY76" s="24"/>
+      <c r="AZ76" s="24"/>
+      <c r="BA76" s="24"/>
+      <c r="BB76" s="24"/>
+      <c r="BC76" s="24"/>
+      <c r="BD76" s="24"/>
+      <c r="BE76" s="24"/>
+      <c r="BF76" s="24"/>
+      <c r="BG76" s="24"/>
+      <c r="BH76" s="24"/>
+      <c r="BI76" s="24"/>
+      <c r="BJ76" s="24"/>
+      <c r="BK76" s="24"/>
+      <c r="BL76" s="24"/>
+      <c r="BM76" s="24"/>
+      <c r="BN76" s="24"/>
+      <c r="BO76" s="24"/>
+      <c r="BP76" s="24"/>
+      <c r="BQ76" s="24"/>
+      <c r="BR76" s="24"/>
+      <c r="BS76" s="24"/>
+      <c r="BT76" s="24"/>
+      <c r="BU76" s="24"/>
+      <c r="BV76" s="24"/>
+      <c r="BW76" s="24"/>
+      <c r="BX76" s="24"/>
+      <c r="BY76" s="24"/>
+      <c r="BZ76" s="24"/>
+      <c r="CA76" s="24"/>
+      <c r="CB76" s="24"/>
+      <c r="CC76" s="24"/>
+      <c r="CD76" s="24"/>
+      <c r="CE76" s="24"/>
+      <c r="CF76" s="24"/>
+      <c r="CG76" s="24"/>
+      <c r="CH76" s="24"/>
+      <c r="CI76" s="24"/>
+      <c r="CJ76" s="24"/>
+      <c r="CK76" s="24"/>
+    </row>
+    <row r="77" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="24"/>
+      <c r="U77" s="24"/>
+      <c r="V77" s="24"/>
+      <c r="W77" s="24"/>
+      <c r="X77" s="24"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="24"/>
+      <c r="AB77" s="24"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="24"/>
+      <c r="AF77" s="24"/>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="24"/>
+      <c r="AI77" s="24"/>
+      <c r="AJ77" s="24"/>
+      <c r="AK77" s="24"/>
+      <c r="AL77" s="24"/>
+      <c r="AM77" s="24"/>
+      <c r="AN77" s="24"/>
+      <c r="AO77" s="24"/>
+      <c r="AP77" s="24"/>
+      <c r="AQ77" s="24"/>
+      <c r="AR77" s="24"/>
+      <c r="AS77" s="24"/>
+      <c r="AT77" s="24"/>
+      <c r="AU77" s="24"/>
+      <c r="AV77" s="24"/>
+      <c r="AW77" s="24"/>
+      <c r="AX77" s="24"/>
+      <c r="AY77" s="24"/>
+      <c r="AZ77" s="24"/>
+      <c r="BA77" s="24"/>
+      <c r="BB77" s="24"/>
+      <c r="BC77" s="24"/>
+      <c r="BD77" s="24"/>
+      <c r="BE77" s="24"/>
+      <c r="BF77" s="24"/>
+      <c r="BG77" s="24"/>
+      <c r="BH77" s="24"/>
+      <c r="BI77" s="24"/>
+      <c r="BJ77" s="24"/>
+      <c r="BK77" s="24"/>
+      <c r="BL77" s="24"/>
+      <c r="BM77" s="24"/>
+      <c r="BN77" s="24"/>
+      <c r="BO77" s="24"/>
+      <c r="BP77" s="24"/>
+      <c r="BQ77" s="24"/>
+      <c r="BR77" s="24"/>
+      <c r="BS77" s="24"/>
+      <c r="BT77" s="24"/>
+      <c r="BU77" s="24"/>
+      <c r="BV77" s="24"/>
+      <c r="BW77" s="24"/>
+      <c r="BX77" s="24"/>
+      <c r="BY77" s="24"/>
+      <c r="BZ77" s="24"/>
+      <c r="CA77" s="24"/>
+      <c r="CB77" s="24"/>
+      <c r="CC77" s="24"/>
+      <c r="CD77" s="24"/>
+      <c r="CE77" s="24"/>
+      <c r="CF77" s="24"/>
+      <c r="CG77" s="24"/>
+      <c r="CH77" s="24"/>
+      <c r="CI77" s="24"/>
+      <c r="CJ77" s="24"/>
+      <c r="CK77" s="24"/>
+    </row>
+    <row r="78" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="24"/>
+      <c r="AI78" s="24"/>
+      <c r="AJ78" s="24"/>
+      <c r="AK78" s="24"/>
+      <c r="AL78" s="24"/>
+      <c r="AM78" s="24"/>
+      <c r="AN78" s="24"/>
+      <c r="AO78" s="24"/>
+      <c r="AP78" s="24"/>
+      <c r="AQ78" s="24"/>
+      <c r="AR78" s="24"/>
+      <c r="AS78" s="24"/>
+      <c r="AT78" s="24"/>
+      <c r="AU78" s="24"/>
+      <c r="AV78" s="24"/>
+      <c r="AW78" s="24"/>
+      <c r="AX78" s="24"/>
+      <c r="AY78" s="24"/>
+      <c r="AZ78" s="24"/>
+      <c r="BA78" s="24"/>
+      <c r="BB78" s="24"/>
+      <c r="BC78" s="24"/>
+      <c r="BD78" s="24"/>
+      <c r="BE78" s="24"/>
+      <c r="BF78" s="24"/>
+      <c r="BG78" s="24"/>
+      <c r="BH78" s="24"/>
+      <c r="BI78" s="24"/>
+      <c r="BJ78" s="24"/>
+      <c r="BK78" s="24"/>
+      <c r="BL78" s="24"/>
+      <c r="BM78" s="24"/>
+      <c r="BN78" s="24"/>
+      <c r="BO78" s="24"/>
+      <c r="BP78" s="24"/>
+      <c r="BQ78" s="24"/>
+      <c r="BR78" s="24"/>
+      <c r="BS78" s="24"/>
+      <c r="BT78" s="24"/>
+      <c r="BU78" s="24"/>
+      <c r="BV78" s="24"/>
+      <c r="BW78" s="24"/>
+      <c r="BX78" s="24"/>
+      <c r="BY78" s="24"/>
+      <c r="BZ78" s="24"/>
+      <c r="CA78" s="24"/>
+      <c r="CB78" s="24"/>
+      <c r="CC78" s="24"/>
+      <c r="CD78" s="24"/>
+      <c r="CE78" s="24"/>
+      <c r="CF78" s="24"/>
+      <c r="CG78" s="24"/>
+      <c r="CH78" s="24"/>
+      <c r="CI78" s="24"/>
+      <c r="CJ78" s="24"/>
+      <c r="CK78" s="24"/>
+    </row>
+    <row r="79" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="24"/>
+      <c r="U79" s="24"/>
+      <c r="V79" s="24"/>
+      <c r="W79" s="24"/>
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="Z79" s="24"/>
+      <c r="AA79" s="24"/>
+      <c r="AB79" s="24"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="24"/>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
+      <c r="AI79" s="24"/>
+      <c r="AJ79" s="24"/>
+      <c r="AK79" s="24"/>
+      <c r="AL79" s="24"/>
+      <c r="AM79" s="24"/>
+      <c r="AN79" s="24"/>
+      <c r="AO79" s="24"/>
+      <c r="AP79" s="24"/>
+      <c r="AQ79" s="24"/>
+      <c r="AR79" s="24"/>
+      <c r="AS79" s="24"/>
+      <c r="AT79" s="24"/>
+      <c r="AU79" s="24"/>
+      <c r="AV79" s="24"/>
+      <c r="AW79" s="24"/>
+      <c r="AX79" s="24"/>
+      <c r="AY79" s="24"/>
+      <c r="AZ79" s="24"/>
+      <c r="BA79" s="24"/>
+      <c r="BB79" s="24"/>
+      <c r="BC79" s="24"/>
+      <c r="BD79" s="24"/>
+      <c r="BE79" s="24"/>
+      <c r="BF79" s="24"/>
+      <c r="BG79" s="24"/>
+      <c r="BH79" s="24"/>
+      <c r="BI79" s="24"/>
+      <c r="BJ79" s="24"/>
+      <c r="BK79" s="24"/>
+      <c r="BL79" s="24"/>
+      <c r="BM79" s="24"/>
+      <c r="BN79" s="24"/>
+      <c r="BO79" s="24"/>
+      <c r="BP79" s="24"/>
+      <c r="BQ79" s="24"/>
+      <c r="BR79" s="24"/>
+      <c r="BS79" s="24"/>
+      <c r="BT79" s="24"/>
+      <c r="BU79" s="24"/>
+      <c r="BV79" s="24"/>
+      <c r="BW79" s="24"/>
+      <c r="BX79" s="24"/>
+      <c r="BY79" s="24"/>
+      <c r="BZ79" s="24"/>
+      <c r="CA79" s="24"/>
+      <c r="CB79" s="24"/>
+      <c r="CC79" s="24"/>
+      <c r="CD79" s="24"/>
+      <c r="CE79" s="24"/>
+      <c r="CF79" s="24"/>
+      <c r="CG79" s="24"/>
+      <c r="CH79" s="24"/>
+      <c r="CI79" s="24"/>
+      <c r="CJ79" s="24"/>
+      <c r="CK79" s="24"/>
+    </row>
+    <row r="80" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="24"/>
+      <c r="U80" s="24"/>
+      <c r="V80" s="24"/>
+      <c r="W80" s="24"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="24"/>
+      <c r="AA80" s="24"/>
+      <c r="AB80" s="24"/>
+      <c r="AC80" s="24"/>
+      <c r="AD80" s="24"/>
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="24"/>
+      <c r="AI80" s="24"/>
+      <c r="AJ80" s="24"/>
+      <c r="AK80" s="24"/>
+      <c r="AL80" s="24"/>
+      <c r="AM80" s="24"/>
+      <c r="AN80" s="24"/>
+      <c r="AO80" s="24"/>
+      <c r="AP80" s="24"/>
+      <c r="AQ80" s="24"/>
+      <c r="AR80" s="24"/>
+      <c r="AS80" s="24"/>
+      <c r="AT80" s="24"/>
+      <c r="AU80" s="24"/>
+      <c r="AV80" s="24"/>
+      <c r="AW80" s="24"/>
+      <c r="AX80" s="24"/>
+      <c r="AY80" s="24"/>
+      <c r="AZ80" s="24"/>
+      <c r="BA80" s="24"/>
+      <c r="BB80" s="24"/>
+      <c r="BC80" s="24"/>
+      <c r="BD80" s="24"/>
+      <c r="BE80" s="24"/>
+      <c r="BF80" s="24"/>
+      <c r="BG80" s="24"/>
+      <c r="BH80" s="24"/>
+      <c r="BI80" s="24"/>
+      <c r="BJ80" s="24"/>
+      <c r="BK80" s="24"/>
+      <c r="BL80" s="24"/>
+      <c r="BM80" s="24"/>
+      <c r="BN80" s="24"/>
+      <c r="BO80" s="24"/>
+      <c r="BP80" s="24"/>
+      <c r="BQ80" s="24"/>
+      <c r="BR80" s="24"/>
+      <c r="BS80" s="24"/>
+      <c r="BT80" s="24"/>
+      <c r="BU80" s="24"/>
+      <c r="BV80" s="24"/>
+      <c r="BW80" s="24"/>
+      <c r="BX80" s="24"/>
+      <c r="BY80" s="24"/>
+      <c r="BZ80" s="24"/>
+      <c r="CA80" s="24"/>
+      <c r="CB80" s="24"/>
+      <c r="CC80" s="24"/>
+      <c r="CD80" s="24"/>
+      <c r="CE80" s="24"/>
+      <c r="CF80" s="24"/>
+      <c r="CG80" s="24"/>
+      <c r="CH80" s="24"/>
+      <c r="CI80" s="24"/>
+      <c r="CJ80" s="24"/>
+      <c r="CK80" s="24"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52840C65-8608-4902-BA74-C61275B4B523}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="41.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="18"/>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="11"/>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="15"/>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="20"/>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="23">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="23">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/development/metadata/SurveyColumnID.xlsx
+++ b/development/metadata/SurveyColumnID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylee\OneDrive\Desktop\REPOS\wildlifeHealthKAP\development\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9D462A-0EA2-4110-8A3A-0D328564056B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9847D535-C856-4756-A98F-BD1AD23C6319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9577" yWindow="60" windowWidth="11693" windowHeight="8295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -653,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,28 +716,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -836,6 +819,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -883,18 +874,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B6662BA-5121-4AF4-8CEE-B7D98CC4A35D}" name="Table1" displayName="Table1" ref="A1:F80" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B6662BA-5121-4AF4-8CEE-B7D98CC4A35D}" name="Table1" displayName="Table1" ref="A1:F80" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:F80" xr:uid="{28725ECF-6729-48C9-AF9D-5AD9407099B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
-    <sortCondition sortBy="cellColor" ref="A1:A80" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A1:A80" dxfId="7"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="1" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{92ECA29B-647E-4683-8D50-36AE58DAB853}" name="0" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{15F32D82-8AF5-4831-9EBD-457C30C24F74}" name="FACTOR" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{92ECA29B-647E-4683-8D50-36AE58DAB853}" name="0" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{15F32D82-8AF5-4831-9EBD-457C30C24F74}" name="FACTOR" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,7 +906,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A5EB4C7-7955-46C8-B082-15F77E62433C}" name="Table5" displayName="Table5" ref="B9:C15" totalsRowShown="0">
   <autoFilter ref="B9:C15" xr:uid="{7A5EB4C7-7955-46C8-B082-15F77E62433C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8D0436A-4A27-410C-B532-2A7F95695745}" name="Name" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C8D0436A-4A27-410C-B532-2A7F95695745}" name="Name" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{DE9BA3A9-20C6-483F-B09A-3EBC3866A095}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1199,7 +1190,6 @@
     <col min="4" max="4" width="23.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.06640625" style="1" customWidth="1"/>
-    <col min="7" max="89" width="9.06640625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2387,89 +2377,89 @@
       <c r="F62" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
-      <c r="U62" s="24"/>
-      <c r="V62" s="24"/>
-      <c r="W62" s="24"/>
-      <c r="X62" s="24"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="24"/>
-      <c r="AB62" s="24"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="24"/>
-      <c r="AE62" s="24"/>
-      <c r="AF62" s="24"/>
-      <c r="AG62" s="24"/>
-      <c r="AH62" s="24"/>
-      <c r="AI62" s="24"/>
-      <c r="AJ62" s="24"/>
-      <c r="AK62" s="24"/>
-      <c r="AL62" s="24"/>
-      <c r="AM62" s="24"/>
-      <c r="AN62" s="24"/>
-      <c r="AO62" s="24"/>
-      <c r="AP62" s="24"/>
-      <c r="AQ62" s="24"/>
-      <c r="AR62" s="24"/>
-      <c r="AS62" s="24"/>
-      <c r="AT62" s="24"/>
-      <c r="AU62" s="24"/>
-      <c r="AV62" s="24"/>
-      <c r="AW62" s="24"/>
-      <c r="AX62" s="24"/>
-      <c r="AY62" s="24"/>
-      <c r="AZ62" s="24"/>
-      <c r="BA62" s="24"/>
-      <c r="BB62" s="24"/>
-      <c r="BC62" s="24"/>
-      <c r="BD62" s="24"/>
-      <c r="BE62" s="24"/>
-      <c r="BF62" s="24"/>
-      <c r="BG62" s="24"/>
-      <c r="BH62" s="24"/>
-      <c r="BI62" s="24"/>
-      <c r="BJ62" s="24"/>
-      <c r="BK62" s="24"/>
-      <c r="BL62" s="24"/>
-      <c r="BM62" s="24"/>
-      <c r="BN62" s="24"/>
-      <c r="BO62" s="24"/>
-      <c r="BP62" s="24"/>
-      <c r="BQ62" s="24"/>
-      <c r="BR62" s="24"/>
-      <c r="BS62" s="24"/>
-      <c r="BT62" s="24"/>
-      <c r="BU62" s="24"/>
-      <c r="BV62" s="24"/>
-      <c r="BW62" s="24"/>
-      <c r="BX62" s="24"/>
-      <c r="BY62" s="24"/>
-      <c r="BZ62" s="24"/>
-      <c r="CA62" s="24"/>
-      <c r="CB62" s="24"/>
-      <c r="CC62" s="24"/>
-      <c r="CD62" s="24"/>
-      <c r="CE62" s="24"/>
-      <c r="CF62" s="24"/>
-      <c r="CG62" s="24"/>
-      <c r="CH62" s="24"/>
-      <c r="CI62" s="24"/>
-      <c r="CJ62" s="24"/>
-      <c r="CK62" s="24"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62"/>
+      <c r="AU62"/>
+      <c r="AV62"/>
+      <c r="AW62"/>
+      <c r="AX62"/>
+      <c r="AY62"/>
+      <c r="AZ62"/>
+      <c r="BA62"/>
+      <c r="BB62"/>
+      <c r="BC62"/>
+      <c r="BD62"/>
+      <c r="BE62"/>
+      <c r="BF62"/>
+      <c r="BG62"/>
+      <c r="BH62"/>
+      <c r="BI62"/>
+      <c r="BJ62"/>
+      <c r="BK62"/>
+      <c r="BL62"/>
+      <c r="BM62"/>
+      <c r="BN62"/>
+      <c r="BO62"/>
+      <c r="BP62"/>
+      <c r="BQ62"/>
+      <c r="BR62"/>
+      <c r="BS62"/>
+      <c r="BT62"/>
+      <c r="BU62"/>
+      <c r="BV62"/>
+      <c r="BW62"/>
+      <c r="BX62"/>
+      <c r="BY62"/>
+      <c r="BZ62"/>
+      <c r="CA62"/>
+      <c r="CB62"/>
+      <c r="CC62"/>
+      <c r="CD62"/>
+      <c r="CE62"/>
+      <c r="CF62"/>
+      <c r="CG62"/>
+      <c r="CH62"/>
+      <c r="CI62"/>
+      <c r="CJ62"/>
+      <c r="CK62"/>
     </row>
     <row r="63" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="6" t="s">
@@ -2490,89 +2480,89 @@
       <c r="F63" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
-      <c r="AB63" s="24"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
-      <c r="AI63" s="24"/>
-      <c r="AJ63" s="24"/>
-      <c r="AK63" s="24"/>
-      <c r="AL63" s="24"/>
-      <c r="AM63" s="24"/>
-      <c r="AN63" s="24"/>
-      <c r="AO63" s="24"/>
-      <c r="AP63" s="24"/>
-      <c r="AQ63" s="24"/>
-      <c r="AR63" s="24"/>
-      <c r="AS63" s="24"/>
-      <c r="AT63" s="24"/>
-      <c r="AU63" s="24"/>
-      <c r="AV63" s="24"/>
-      <c r="AW63" s="24"/>
-      <c r="AX63" s="24"/>
-      <c r="AY63" s="24"/>
-      <c r="AZ63" s="24"/>
-      <c r="BA63" s="24"/>
-      <c r="BB63" s="24"/>
-      <c r="BC63" s="24"/>
-      <c r="BD63" s="24"/>
-      <c r="BE63" s="24"/>
-      <c r="BF63" s="24"/>
-      <c r="BG63" s="24"/>
-      <c r="BH63" s="24"/>
-      <c r="BI63" s="24"/>
-      <c r="BJ63" s="24"/>
-      <c r="BK63" s="24"/>
-      <c r="BL63" s="24"/>
-      <c r="BM63" s="24"/>
-      <c r="BN63" s="24"/>
-      <c r="BO63" s="24"/>
-      <c r="BP63" s="24"/>
-      <c r="BQ63" s="24"/>
-      <c r="BR63" s="24"/>
-      <c r="BS63" s="24"/>
-      <c r="BT63" s="24"/>
-      <c r="BU63" s="24"/>
-      <c r="BV63" s="24"/>
-      <c r="BW63" s="24"/>
-      <c r="BX63" s="24"/>
-      <c r="BY63" s="24"/>
-      <c r="BZ63" s="24"/>
-      <c r="CA63" s="24"/>
-      <c r="CB63" s="24"/>
-      <c r="CC63" s="24"/>
-      <c r="CD63" s="24"/>
-      <c r="CE63" s="24"/>
-      <c r="CF63" s="24"/>
-      <c r="CG63" s="24"/>
-      <c r="CH63" s="24"/>
-      <c r="CI63" s="24"/>
-      <c r="CJ63" s="24"/>
-      <c r="CK63" s="24"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
+      <c r="BK63"/>
+      <c r="BL63"/>
+      <c r="BM63"/>
+      <c r="BN63"/>
+      <c r="BO63"/>
+      <c r="BP63"/>
+      <c r="BQ63"/>
+      <c r="BR63"/>
+      <c r="BS63"/>
+      <c r="BT63"/>
+      <c r="BU63"/>
+      <c r="BV63"/>
+      <c r="BW63"/>
+      <c r="BX63"/>
+      <c r="BY63"/>
+      <c r="BZ63"/>
+      <c r="CA63"/>
+      <c r="CB63"/>
+      <c r="CC63"/>
+      <c r="CD63"/>
+      <c r="CE63"/>
+      <c r="CF63"/>
+      <c r="CG63"/>
+      <c r="CH63"/>
+      <c r="CI63"/>
+      <c r="CJ63"/>
+      <c r="CK63"/>
     </row>
     <row r="64" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="6" t="s">
@@ -2585,89 +2575,89 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="24"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AK64" s="24"/>
-      <c r="AL64" s="24"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="24"/>
-      <c r="AO64" s="24"/>
-      <c r="AP64" s="24"/>
-      <c r="AQ64" s="24"/>
-      <c r="AR64" s="24"/>
-      <c r="AS64" s="24"/>
-      <c r="AT64" s="24"/>
-      <c r="AU64" s="24"/>
-      <c r="AV64" s="24"/>
-      <c r="AW64" s="24"/>
-      <c r="AX64" s="24"/>
-      <c r="AY64" s="24"/>
-      <c r="AZ64" s="24"/>
-      <c r="BA64" s="24"/>
-      <c r="BB64" s="24"/>
-      <c r="BC64" s="24"/>
-      <c r="BD64" s="24"/>
-      <c r="BE64" s="24"/>
-      <c r="BF64" s="24"/>
-      <c r="BG64" s="24"/>
-      <c r="BH64" s="24"/>
-      <c r="BI64" s="24"/>
-      <c r="BJ64" s="24"/>
-      <c r="BK64" s="24"/>
-      <c r="BL64" s="24"/>
-      <c r="BM64" s="24"/>
-      <c r="BN64" s="24"/>
-      <c r="BO64" s="24"/>
-      <c r="BP64" s="24"/>
-      <c r="BQ64" s="24"/>
-      <c r="BR64" s="24"/>
-      <c r="BS64" s="24"/>
-      <c r="BT64" s="24"/>
-      <c r="BU64" s="24"/>
-      <c r="BV64" s="24"/>
-      <c r="BW64" s="24"/>
-      <c r="BX64" s="24"/>
-      <c r="BY64" s="24"/>
-      <c r="BZ64" s="24"/>
-      <c r="CA64" s="24"/>
-      <c r="CB64" s="24"/>
-      <c r="CC64" s="24"/>
-      <c r="CD64" s="24"/>
-      <c r="CE64" s="24"/>
-      <c r="CF64" s="24"/>
-      <c r="CG64" s="24"/>
-      <c r="CH64" s="24"/>
-      <c r="CI64" s="24"/>
-      <c r="CJ64" s="24"/>
-      <c r="CK64" s="24"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+      <c r="AT64"/>
+      <c r="AU64"/>
+      <c r="AV64"/>
+      <c r="AW64"/>
+      <c r="AX64"/>
+      <c r="AY64"/>
+      <c r="AZ64"/>
+      <c r="BA64"/>
+      <c r="BB64"/>
+      <c r="BC64"/>
+      <c r="BD64"/>
+      <c r="BE64"/>
+      <c r="BF64"/>
+      <c r="BG64"/>
+      <c r="BH64"/>
+      <c r="BI64"/>
+      <c r="BJ64"/>
+      <c r="BK64"/>
+      <c r="BL64"/>
+      <c r="BM64"/>
+      <c r="BN64"/>
+      <c r="BO64"/>
+      <c r="BP64"/>
+      <c r="BQ64"/>
+      <c r="BR64"/>
+      <c r="BS64"/>
+      <c r="BT64"/>
+      <c r="BU64"/>
+      <c r="BV64"/>
+      <c r="BW64"/>
+      <c r="BX64"/>
+      <c r="BY64"/>
+      <c r="BZ64"/>
+      <c r="CA64"/>
+      <c r="CB64"/>
+      <c r="CC64"/>
+      <c r="CD64"/>
+      <c r="CE64"/>
+      <c r="CF64"/>
+      <c r="CG64"/>
+      <c r="CH64"/>
+      <c r="CI64"/>
+      <c r="CJ64"/>
+      <c r="CK64"/>
     </row>
     <row r="65" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="6" t="s">
@@ -2688,89 +2678,89 @@
       <c r="F65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
-      <c r="AI65" s="24"/>
-      <c r="AJ65" s="24"/>
-      <c r="AK65" s="24"/>
-      <c r="AL65" s="24"/>
-      <c r="AM65" s="24"/>
-      <c r="AN65" s="24"/>
-      <c r="AO65" s="24"/>
-      <c r="AP65" s="24"/>
-      <c r="AQ65" s="24"/>
-      <c r="AR65" s="24"/>
-      <c r="AS65" s="24"/>
-      <c r="AT65" s="24"/>
-      <c r="AU65" s="24"/>
-      <c r="AV65" s="24"/>
-      <c r="AW65" s="24"/>
-      <c r="AX65" s="24"/>
-      <c r="AY65" s="24"/>
-      <c r="AZ65" s="24"/>
-      <c r="BA65" s="24"/>
-      <c r="BB65" s="24"/>
-      <c r="BC65" s="24"/>
-      <c r="BD65" s="24"/>
-      <c r="BE65" s="24"/>
-      <c r="BF65" s="24"/>
-      <c r="BG65" s="24"/>
-      <c r="BH65" s="24"/>
-      <c r="BI65" s="24"/>
-      <c r="BJ65" s="24"/>
-      <c r="BK65" s="24"/>
-      <c r="BL65" s="24"/>
-      <c r="BM65" s="24"/>
-      <c r="BN65" s="24"/>
-      <c r="BO65" s="24"/>
-      <c r="BP65" s="24"/>
-      <c r="BQ65" s="24"/>
-      <c r="BR65" s="24"/>
-      <c r="BS65" s="24"/>
-      <c r="BT65" s="24"/>
-      <c r="BU65" s="24"/>
-      <c r="BV65" s="24"/>
-      <c r="BW65" s="24"/>
-      <c r="BX65" s="24"/>
-      <c r="BY65" s="24"/>
-      <c r="BZ65" s="24"/>
-      <c r="CA65" s="24"/>
-      <c r="CB65" s="24"/>
-      <c r="CC65" s="24"/>
-      <c r="CD65" s="24"/>
-      <c r="CE65" s="24"/>
-      <c r="CF65" s="24"/>
-      <c r="CG65" s="24"/>
-      <c r="CH65" s="24"/>
-      <c r="CI65" s="24"/>
-      <c r="CJ65" s="24"/>
-      <c r="CK65" s="24"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+      <c r="AS65"/>
+      <c r="AT65"/>
+      <c r="AU65"/>
+      <c r="AV65"/>
+      <c r="AW65"/>
+      <c r="AX65"/>
+      <c r="AY65"/>
+      <c r="AZ65"/>
+      <c r="BA65"/>
+      <c r="BB65"/>
+      <c r="BC65"/>
+      <c r="BD65"/>
+      <c r="BE65"/>
+      <c r="BF65"/>
+      <c r="BG65"/>
+      <c r="BH65"/>
+      <c r="BI65"/>
+      <c r="BJ65"/>
+      <c r="BK65"/>
+      <c r="BL65"/>
+      <c r="BM65"/>
+      <c r="BN65"/>
+      <c r="BO65"/>
+      <c r="BP65"/>
+      <c r="BQ65"/>
+      <c r="BR65"/>
+      <c r="BS65"/>
+      <c r="BT65"/>
+      <c r="BU65"/>
+      <c r="BV65"/>
+      <c r="BW65"/>
+      <c r="BX65"/>
+      <c r="BY65"/>
+      <c r="BZ65"/>
+      <c r="CA65"/>
+      <c r="CB65"/>
+      <c r="CC65"/>
+      <c r="CD65"/>
+      <c r="CE65"/>
+      <c r="CF65"/>
+      <c r="CG65"/>
+      <c r="CH65"/>
+      <c r="CI65"/>
+      <c r="CJ65"/>
+      <c r="CK65"/>
     </row>
     <row r="66" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="6" t="s">
@@ -2791,89 +2781,89 @@
       <c r="F66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="24"/>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="24"/>
-      <c r="AQ66" s="24"/>
-      <c r="AR66" s="24"/>
-      <c r="AS66" s="24"/>
-      <c r="AT66" s="24"/>
-      <c r="AU66" s="24"/>
-      <c r="AV66" s="24"/>
-      <c r="AW66" s="24"/>
-      <c r="AX66" s="24"/>
-      <c r="AY66" s="24"/>
-      <c r="AZ66" s="24"/>
-      <c r="BA66" s="24"/>
-      <c r="BB66" s="24"/>
-      <c r="BC66" s="24"/>
-      <c r="BD66" s="24"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="24"/>
-      <c r="BG66" s="24"/>
-      <c r="BH66" s="24"/>
-      <c r="BI66" s="24"/>
-      <c r="BJ66" s="24"/>
-      <c r="BK66" s="24"/>
-      <c r="BL66" s="24"/>
-      <c r="BM66" s="24"/>
-      <c r="BN66" s="24"/>
-      <c r="BO66" s="24"/>
-      <c r="BP66" s="24"/>
-      <c r="BQ66" s="24"/>
-      <c r="BR66" s="24"/>
-      <c r="BS66" s="24"/>
-      <c r="BT66" s="24"/>
-      <c r="BU66" s="24"/>
-      <c r="BV66" s="24"/>
-      <c r="BW66" s="24"/>
-      <c r="BX66" s="24"/>
-      <c r="BY66" s="24"/>
-      <c r="BZ66" s="24"/>
-      <c r="CA66" s="24"/>
-      <c r="CB66" s="24"/>
-      <c r="CC66" s="24"/>
-      <c r="CD66" s="24"/>
-      <c r="CE66" s="24"/>
-      <c r="CF66" s="24"/>
-      <c r="CG66" s="24"/>
-      <c r="CH66" s="24"/>
-      <c r="CI66" s="24"/>
-      <c r="CJ66" s="24"/>
-      <c r="CK66" s="24"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+      <c r="AS66"/>
+      <c r="AT66"/>
+      <c r="AU66"/>
+      <c r="AV66"/>
+      <c r="AW66"/>
+      <c r="AX66"/>
+      <c r="AY66"/>
+      <c r="AZ66"/>
+      <c r="BA66"/>
+      <c r="BB66"/>
+      <c r="BC66"/>
+      <c r="BD66"/>
+      <c r="BE66"/>
+      <c r="BF66"/>
+      <c r="BG66"/>
+      <c r="BH66"/>
+      <c r="BI66"/>
+      <c r="BJ66"/>
+      <c r="BK66"/>
+      <c r="BL66"/>
+      <c r="BM66"/>
+      <c r="BN66"/>
+      <c r="BO66"/>
+      <c r="BP66"/>
+      <c r="BQ66"/>
+      <c r="BR66"/>
+      <c r="BS66"/>
+      <c r="BT66"/>
+      <c r="BU66"/>
+      <c r="BV66"/>
+      <c r="BW66"/>
+      <c r="BX66"/>
+      <c r="BY66"/>
+      <c r="BZ66"/>
+      <c r="CA66"/>
+      <c r="CB66"/>
+      <c r="CC66"/>
+      <c r="CD66"/>
+      <c r="CE66"/>
+      <c r="CF66"/>
+      <c r="CG66"/>
+      <c r="CH66"/>
+      <c r="CI66"/>
+      <c r="CJ66"/>
+      <c r="CK66"/>
     </row>
     <row r="67" spans="1:89" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
@@ -2946,89 +2936,89 @@
       <c r="F72" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="24"/>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="24"/>
-      <c r="AK72" s="24"/>
-      <c r="AL72" s="24"/>
-      <c r="AM72" s="24"/>
-      <c r="AN72" s="24"/>
-      <c r="AO72" s="24"/>
-      <c r="AP72" s="24"/>
-      <c r="AQ72" s="24"/>
-      <c r="AR72" s="24"/>
-      <c r="AS72" s="24"/>
-      <c r="AT72" s="24"/>
-      <c r="AU72" s="24"/>
-      <c r="AV72" s="24"/>
-      <c r="AW72" s="24"/>
-      <c r="AX72" s="24"/>
-      <c r="AY72" s="24"/>
-      <c r="AZ72" s="24"/>
-      <c r="BA72" s="24"/>
-      <c r="BB72" s="24"/>
-      <c r="BC72" s="24"/>
-      <c r="BD72" s="24"/>
-      <c r="BE72" s="24"/>
-      <c r="BF72" s="24"/>
-      <c r="BG72" s="24"/>
-      <c r="BH72" s="24"/>
-      <c r="BI72" s="24"/>
-      <c r="BJ72" s="24"/>
-      <c r="BK72" s="24"/>
-      <c r="BL72" s="24"/>
-      <c r="BM72" s="24"/>
-      <c r="BN72" s="24"/>
-      <c r="BO72" s="24"/>
-      <c r="BP72" s="24"/>
-      <c r="BQ72" s="24"/>
-      <c r="BR72" s="24"/>
-      <c r="BS72" s="24"/>
-      <c r="BT72" s="24"/>
-      <c r="BU72" s="24"/>
-      <c r="BV72" s="24"/>
-      <c r="BW72" s="24"/>
-      <c r="BX72" s="24"/>
-      <c r="BY72" s="24"/>
-      <c r="BZ72" s="24"/>
-      <c r="CA72" s="24"/>
-      <c r="CB72" s="24"/>
-      <c r="CC72" s="24"/>
-      <c r="CD72" s="24"/>
-      <c r="CE72" s="24"/>
-      <c r="CF72" s="24"/>
-      <c r="CG72" s="24"/>
-      <c r="CH72" s="24"/>
-      <c r="CI72" s="24"/>
-      <c r="CJ72" s="24"/>
-      <c r="CK72" s="24"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72"/>
+      <c r="AO72"/>
+      <c r="AP72"/>
+      <c r="AQ72"/>
+      <c r="AR72"/>
+      <c r="AS72"/>
+      <c r="AT72"/>
+      <c r="AU72"/>
+      <c r="AV72"/>
+      <c r="AW72"/>
+      <c r="AX72"/>
+      <c r="AY72"/>
+      <c r="AZ72"/>
+      <c r="BA72"/>
+      <c r="BB72"/>
+      <c r="BC72"/>
+      <c r="BD72"/>
+      <c r="BE72"/>
+      <c r="BF72"/>
+      <c r="BG72"/>
+      <c r="BH72"/>
+      <c r="BI72"/>
+      <c r="BJ72"/>
+      <c r="BK72"/>
+      <c r="BL72"/>
+      <c r="BM72"/>
+      <c r="BN72"/>
+      <c r="BO72"/>
+      <c r="BP72"/>
+      <c r="BQ72"/>
+      <c r="BR72"/>
+      <c r="BS72"/>
+      <c r="BT72"/>
+      <c r="BU72"/>
+      <c r="BV72"/>
+      <c r="BW72"/>
+      <c r="BX72"/>
+      <c r="BY72"/>
+      <c r="BZ72"/>
+      <c r="CA72"/>
+      <c r="CB72"/>
+      <c r="CC72"/>
+      <c r="CD72"/>
+      <c r="CE72"/>
+      <c r="CF72"/>
+      <c r="CG72"/>
+      <c r="CH72"/>
+      <c r="CI72"/>
+      <c r="CJ72"/>
+      <c r="CK72"/>
     </row>
     <row r="73" spans="1:89" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="21" t="s">
@@ -3041,89 +3031,89 @@
       <c r="F73" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
-      <c r="U73" s="24"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="24"/>
-      <c r="AB73" s="24"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="24"/>
-      <c r="AK73" s="24"/>
-      <c r="AL73" s="24"/>
-      <c r="AM73" s="24"/>
-      <c r="AN73" s="24"/>
-      <c r="AO73" s="24"/>
-      <c r="AP73" s="24"/>
-      <c r="AQ73" s="24"/>
-      <c r="AR73" s="24"/>
-      <c r="AS73" s="24"/>
-      <c r="AT73" s="24"/>
-      <c r="AU73" s="24"/>
-      <c r="AV73" s="24"/>
-      <c r="AW73" s="24"/>
-      <c r="AX73" s="24"/>
-      <c r="AY73" s="24"/>
-      <c r="AZ73" s="24"/>
-      <c r="BA73" s="24"/>
-      <c r="BB73" s="24"/>
-      <c r="BC73" s="24"/>
-      <c r="BD73" s="24"/>
-      <c r="BE73" s="24"/>
-      <c r="BF73" s="24"/>
-      <c r="BG73" s="24"/>
-      <c r="BH73" s="24"/>
-      <c r="BI73" s="24"/>
-      <c r="BJ73" s="24"/>
-      <c r="BK73" s="24"/>
-      <c r="BL73" s="24"/>
-      <c r="BM73" s="24"/>
-      <c r="BN73" s="24"/>
-      <c r="BO73" s="24"/>
-      <c r="BP73" s="24"/>
-      <c r="BQ73" s="24"/>
-      <c r="BR73" s="24"/>
-      <c r="BS73" s="24"/>
-      <c r="BT73" s="24"/>
-      <c r="BU73" s="24"/>
-      <c r="BV73" s="24"/>
-      <c r="BW73" s="24"/>
-      <c r="BX73" s="24"/>
-      <c r="BY73" s="24"/>
-      <c r="BZ73" s="24"/>
-      <c r="CA73" s="24"/>
-      <c r="CB73" s="24"/>
-      <c r="CC73" s="24"/>
-      <c r="CD73" s="24"/>
-      <c r="CE73" s="24"/>
-      <c r="CF73" s="24"/>
-      <c r="CG73" s="24"/>
-      <c r="CH73" s="24"/>
-      <c r="CI73" s="24"/>
-      <c r="CJ73" s="24"/>
-      <c r="CK73" s="24"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+      <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73"/>
+      <c r="AO73"/>
+      <c r="AP73"/>
+      <c r="AQ73"/>
+      <c r="AR73"/>
+      <c r="AS73"/>
+      <c r="AT73"/>
+      <c r="AU73"/>
+      <c r="AV73"/>
+      <c r="AW73"/>
+      <c r="AX73"/>
+      <c r="AY73"/>
+      <c r="AZ73"/>
+      <c r="BA73"/>
+      <c r="BB73"/>
+      <c r="BC73"/>
+      <c r="BD73"/>
+      <c r="BE73"/>
+      <c r="BF73"/>
+      <c r="BG73"/>
+      <c r="BH73"/>
+      <c r="BI73"/>
+      <c r="BJ73"/>
+      <c r="BK73"/>
+      <c r="BL73"/>
+      <c r="BM73"/>
+      <c r="BN73"/>
+      <c r="BO73"/>
+      <c r="BP73"/>
+      <c r="BQ73"/>
+      <c r="BR73"/>
+      <c r="BS73"/>
+      <c r="BT73"/>
+      <c r="BU73"/>
+      <c r="BV73"/>
+      <c r="BW73"/>
+      <c r="BX73"/>
+      <c r="BY73"/>
+      <c r="BZ73"/>
+      <c r="CA73"/>
+      <c r="CB73"/>
+      <c r="CC73"/>
+      <c r="CD73"/>
+      <c r="CE73"/>
+      <c r="CF73"/>
+      <c r="CG73"/>
+      <c r="CH73"/>
+      <c r="CI73"/>
+      <c r="CJ73"/>
+      <c r="CK73"/>
     </row>
     <row r="74" spans="1:89" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="21" t="s">
@@ -3136,89 +3126,89 @@
       <c r="F74" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
-      <c r="T74" s="24"/>
-      <c r="U74" s="24"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="24"/>
-      <c r="X74" s="24"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="24"/>
-      <c r="AA74" s="24"/>
-      <c r="AB74" s="24"/>
-      <c r="AC74" s="24"/>
-      <c r="AD74" s="24"/>
-      <c r="AE74" s="24"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
-      <c r="AH74" s="24"/>
-      <c r="AI74" s="24"/>
-      <c r="AJ74" s="24"/>
-      <c r="AK74" s="24"/>
-      <c r="AL74" s="24"/>
-      <c r="AM74" s="24"/>
-      <c r="AN74" s="24"/>
-      <c r="AO74" s="24"/>
-      <c r="AP74" s="24"/>
-      <c r="AQ74" s="24"/>
-      <c r="AR74" s="24"/>
-      <c r="AS74" s="24"/>
-      <c r="AT74" s="24"/>
-      <c r="AU74" s="24"/>
-      <c r="AV74" s="24"/>
-      <c r="AW74" s="24"/>
-      <c r="AX74" s="24"/>
-      <c r="AY74" s="24"/>
-      <c r="AZ74" s="24"/>
-      <c r="BA74" s="24"/>
-      <c r="BB74" s="24"/>
-      <c r="BC74" s="24"/>
-      <c r="BD74" s="24"/>
-      <c r="BE74" s="24"/>
-      <c r="BF74" s="24"/>
-      <c r="BG74" s="24"/>
-      <c r="BH74" s="24"/>
-      <c r="BI74" s="24"/>
-      <c r="BJ74" s="24"/>
-      <c r="BK74" s="24"/>
-      <c r="BL74" s="24"/>
-      <c r="BM74" s="24"/>
-      <c r="BN74" s="24"/>
-      <c r="BO74" s="24"/>
-      <c r="BP74" s="24"/>
-      <c r="BQ74" s="24"/>
-      <c r="BR74" s="24"/>
-      <c r="BS74" s="24"/>
-      <c r="BT74" s="24"/>
-      <c r="BU74" s="24"/>
-      <c r="BV74" s="24"/>
-      <c r="BW74" s="24"/>
-      <c r="BX74" s="24"/>
-      <c r="BY74" s="24"/>
-      <c r="BZ74" s="24"/>
-      <c r="CA74" s="24"/>
-      <c r="CB74" s="24"/>
-      <c r="CC74" s="24"/>
-      <c r="CD74" s="24"/>
-      <c r="CE74" s="24"/>
-      <c r="CF74" s="24"/>
-      <c r="CG74" s="24"/>
-      <c r="CH74" s="24"/>
-      <c r="CI74" s="24"/>
-      <c r="CJ74" s="24"/>
-      <c r="CK74" s="24"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+      <c r="AL74"/>
+      <c r="AM74"/>
+      <c r="AN74"/>
+      <c r="AO74"/>
+      <c r="AP74"/>
+      <c r="AQ74"/>
+      <c r="AR74"/>
+      <c r="AS74"/>
+      <c r="AT74"/>
+      <c r="AU74"/>
+      <c r="AV74"/>
+      <c r="AW74"/>
+      <c r="AX74"/>
+      <c r="AY74"/>
+      <c r="AZ74"/>
+      <c r="BA74"/>
+      <c r="BB74"/>
+      <c r="BC74"/>
+      <c r="BD74"/>
+      <c r="BE74"/>
+      <c r="BF74"/>
+      <c r="BG74"/>
+      <c r="BH74"/>
+      <c r="BI74"/>
+      <c r="BJ74"/>
+      <c r="BK74"/>
+      <c r="BL74"/>
+      <c r="BM74"/>
+      <c r="BN74"/>
+      <c r="BO74"/>
+      <c r="BP74"/>
+      <c r="BQ74"/>
+      <c r="BR74"/>
+      <c r="BS74"/>
+      <c r="BT74"/>
+      <c r="BU74"/>
+      <c r="BV74"/>
+      <c r="BW74"/>
+      <c r="BX74"/>
+      <c r="BY74"/>
+      <c r="BZ74"/>
+      <c r="CA74"/>
+      <c r="CB74"/>
+      <c r="CC74"/>
+      <c r="CD74"/>
+      <c r="CE74"/>
+      <c r="CF74"/>
+      <c r="CG74"/>
+      <c r="CH74"/>
+      <c r="CI74"/>
+      <c r="CJ74"/>
+      <c r="CK74"/>
     </row>
     <row r="75" spans="1:89" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="12" t="s">
@@ -3231,89 +3221,89 @@
       <c r="F75" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
-      <c r="U75" s="24"/>
-      <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
-      <c r="X75" s="24"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="24"/>
-      <c r="AA75" s="24"/>
-      <c r="AB75" s="24"/>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="24"/>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="24"/>
-      <c r="AG75" s="24"/>
-      <c r="AH75" s="24"/>
-      <c r="AI75" s="24"/>
-      <c r="AJ75" s="24"/>
-      <c r="AK75" s="24"/>
-      <c r="AL75" s="24"/>
-      <c r="AM75" s="24"/>
-      <c r="AN75" s="24"/>
-      <c r="AO75" s="24"/>
-      <c r="AP75" s="24"/>
-      <c r="AQ75" s="24"/>
-      <c r="AR75" s="24"/>
-      <c r="AS75" s="24"/>
-      <c r="AT75" s="24"/>
-      <c r="AU75" s="24"/>
-      <c r="AV75" s="24"/>
-      <c r="AW75" s="24"/>
-      <c r="AX75" s="24"/>
-      <c r="AY75" s="24"/>
-      <c r="AZ75" s="24"/>
-      <c r="BA75" s="24"/>
-      <c r="BB75" s="24"/>
-      <c r="BC75" s="24"/>
-      <c r="BD75" s="24"/>
-      <c r="BE75" s="24"/>
-      <c r="BF75" s="24"/>
-      <c r="BG75" s="24"/>
-      <c r="BH75" s="24"/>
-      <c r="BI75" s="24"/>
-      <c r="BJ75" s="24"/>
-      <c r="BK75" s="24"/>
-      <c r="BL75" s="24"/>
-      <c r="BM75" s="24"/>
-      <c r="BN75" s="24"/>
-      <c r="BO75" s="24"/>
-      <c r="BP75" s="24"/>
-      <c r="BQ75" s="24"/>
-      <c r="BR75" s="24"/>
-      <c r="BS75" s="24"/>
-      <c r="BT75" s="24"/>
-      <c r="BU75" s="24"/>
-      <c r="BV75" s="24"/>
-      <c r="BW75" s="24"/>
-      <c r="BX75" s="24"/>
-      <c r="BY75" s="24"/>
-      <c r="BZ75" s="24"/>
-      <c r="CA75" s="24"/>
-      <c r="CB75" s="24"/>
-      <c r="CC75" s="24"/>
-      <c r="CD75" s="24"/>
-      <c r="CE75" s="24"/>
-      <c r="CF75" s="24"/>
-      <c r="CG75" s="24"/>
-      <c r="CH75" s="24"/>
-      <c r="CI75" s="24"/>
-      <c r="CJ75" s="24"/>
-      <c r="CK75" s="24"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+      <c r="AG75"/>
+      <c r="AH75"/>
+      <c r="AI75"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
+      <c r="AL75"/>
+      <c r="AM75"/>
+      <c r="AN75"/>
+      <c r="AO75"/>
+      <c r="AP75"/>
+      <c r="AQ75"/>
+      <c r="AR75"/>
+      <c r="AS75"/>
+      <c r="AT75"/>
+      <c r="AU75"/>
+      <c r="AV75"/>
+      <c r="AW75"/>
+      <c r="AX75"/>
+      <c r="AY75"/>
+      <c r="AZ75"/>
+      <c r="BA75"/>
+      <c r="BB75"/>
+      <c r="BC75"/>
+      <c r="BD75"/>
+      <c r="BE75"/>
+      <c r="BF75"/>
+      <c r="BG75"/>
+      <c r="BH75"/>
+      <c r="BI75"/>
+      <c r="BJ75"/>
+      <c r="BK75"/>
+      <c r="BL75"/>
+      <c r="BM75"/>
+      <c r="BN75"/>
+      <c r="BO75"/>
+      <c r="BP75"/>
+      <c r="BQ75"/>
+      <c r="BR75"/>
+      <c r="BS75"/>
+      <c r="BT75"/>
+      <c r="BU75"/>
+      <c r="BV75"/>
+      <c r="BW75"/>
+      <c r="BX75"/>
+      <c r="BY75"/>
+      <c r="BZ75"/>
+      <c r="CA75"/>
+      <c r="CB75"/>
+      <c r="CC75"/>
+      <c r="CD75"/>
+      <c r="CE75"/>
+      <c r="CF75"/>
+      <c r="CG75"/>
+      <c r="CH75"/>
+      <c r="CI75"/>
+      <c r="CJ75"/>
+      <c r="CK75"/>
     </row>
     <row r="76" spans="1:89" s="15" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="13" t="s">
@@ -3326,89 +3316,89 @@
       <c r="F76" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
-      <c r="U76" s="24"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="24"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="24"/>
-      <c r="AB76" s="24"/>
-      <c r="AC76" s="24"/>
-      <c r="AD76" s="24"/>
-      <c r="AE76" s="24"/>
-      <c r="AF76" s="24"/>
-      <c r="AG76" s="24"/>
-      <c r="AH76" s="24"/>
-      <c r="AI76" s="24"/>
-      <c r="AJ76" s="24"/>
-      <c r="AK76" s="24"/>
-      <c r="AL76" s="24"/>
-      <c r="AM76" s="24"/>
-      <c r="AN76" s="24"/>
-      <c r="AO76" s="24"/>
-      <c r="AP76" s="24"/>
-      <c r="AQ76" s="24"/>
-      <c r="AR76" s="24"/>
-      <c r="AS76" s="24"/>
-      <c r="AT76" s="24"/>
-      <c r="AU76" s="24"/>
-      <c r="AV76" s="24"/>
-      <c r="AW76" s="24"/>
-      <c r="AX76" s="24"/>
-      <c r="AY76" s="24"/>
-      <c r="AZ76" s="24"/>
-      <c r="BA76" s="24"/>
-      <c r="BB76" s="24"/>
-      <c r="BC76" s="24"/>
-      <c r="BD76" s="24"/>
-      <c r="BE76" s="24"/>
-      <c r="BF76" s="24"/>
-      <c r="BG76" s="24"/>
-      <c r="BH76" s="24"/>
-      <c r="BI76" s="24"/>
-      <c r="BJ76" s="24"/>
-      <c r="BK76" s="24"/>
-      <c r="BL76" s="24"/>
-      <c r="BM76" s="24"/>
-      <c r="BN76" s="24"/>
-      <c r="BO76" s="24"/>
-      <c r="BP76" s="24"/>
-      <c r="BQ76" s="24"/>
-      <c r="BR76" s="24"/>
-      <c r="BS76" s="24"/>
-      <c r="BT76" s="24"/>
-      <c r="BU76" s="24"/>
-      <c r="BV76" s="24"/>
-      <c r="BW76" s="24"/>
-      <c r="BX76" s="24"/>
-      <c r="BY76" s="24"/>
-      <c r="BZ76" s="24"/>
-      <c r="CA76" s="24"/>
-      <c r="CB76" s="24"/>
-      <c r="CC76" s="24"/>
-      <c r="CD76" s="24"/>
-      <c r="CE76" s="24"/>
-      <c r="CF76" s="24"/>
-      <c r="CG76" s="24"/>
-      <c r="CH76" s="24"/>
-      <c r="CI76" s="24"/>
-      <c r="CJ76" s="24"/>
-      <c r="CK76" s="24"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+      <c r="AG76"/>
+      <c r="AH76"/>
+      <c r="AI76"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
+      <c r="AL76"/>
+      <c r="AM76"/>
+      <c r="AN76"/>
+      <c r="AO76"/>
+      <c r="AP76"/>
+      <c r="AQ76"/>
+      <c r="AR76"/>
+      <c r="AS76"/>
+      <c r="AT76"/>
+      <c r="AU76"/>
+      <c r="AV76"/>
+      <c r="AW76"/>
+      <c r="AX76"/>
+      <c r="AY76"/>
+      <c r="AZ76"/>
+      <c r="BA76"/>
+      <c r="BB76"/>
+      <c r="BC76"/>
+      <c r="BD76"/>
+      <c r="BE76"/>
+      <c r="BF76"/>
+      <c r="BG76"/>
+      <c r="BH76"/>
+      <c r="BI76"/>
+      <c r="BJ76"/>
+      <c r="BK76"/>
+      <c r="BL76"/>
+      <c r="BM76"/>
+      <c r="BN76"/>
+      <c r="BO76"/>
+      <c r="BP76"/>
+      <c r="BQ76"/>
+      <c r="BR76"/>
+      <c r="BS76"/>
+      <c r="BT76"/>
+      <c r="BU76"/>
+      <c r="BV76"/>
+      <c r="BW76"/>
+      <c r="BX76"/>
+      <c r="BY76"/>
+      <c r="BZ76"/>
+      <c r="CA76"/>
+      <c r="CB76"/>
+      <c r="CC76"/>
+      <c r="CD76"/>
+      <c r="CE76"/>
+      <c r="CF76"/>
+      <c r="CG76"/>
+      <c r="CH76"/>
+      <c r="CI76"/>
+      <c r="CJ76"/>
+      <c r="CK76"/>
     </row>
     <row r="77" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="16" t="s">
@@ -3421,89 +3411,89 @@
       <c r="F77" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
-      <c r="T77" s="24"/>
-      <c r="U77" s="24"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="24"/>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="24"/>
-      <c r="AB77" s="24"/>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="24"/>
-      <c r="AE77" s="24"/>
-      <c r="AF77" s="24"/>
-      <c r="AG77" s="24"/>
-      <c r="AH77" s="24"/>
-      <c r="AI77" s="24"/>
-      <c r="AJ77" s="24"/>
-      <c r="AK77" s="24"/>
-      <c r="AL77" s="24"/>
-      <c r="AM77" s="24"/>
-      <c r="AN77" s="24"/>
-      <c r="AO77" s="24"/>
-      <c r="AP77" s="24"/>
-      <c r="AQ77" s="24"/>
-      <c r="AR77" s="24"/>
-      <c r="AS77" s="24"/>
-      <c r="AT77" s="24"/>
-      <c r="AU77" s="24"/>
-      <c r="AV77" s="24"/>
-      <c r="AW77" s="24"/>
-      <c r="AX77" s="24"/>
-      <c r="AY77" s="24"/>
-      <c r="AZ77" s="24"/>
-      <c r="BA77" s="24"/>
-      <c r="BB77" s="24"/>
-      <c r="BC77" s="24"/>
-      <c r="BD77" s="24"/>
-      <c r="BE77" s="24"/>
-      <c r="BF77" s="24"/>
-      <c r="BG77" s="24"/>
-      <c r="BH77" s="24"/>
-      <c r="BI77" s="24"/>
-      <c r="BJ77" s="24"/>
-      <c r="BK77" s="24"/>
-      <c r="BL77" s="24"/>
-      <c r="BM77" s="24"/>
-      <c r="BN77" s="24"/>
-      <c r="BO77" s="24"/>
-      <c r="BP77" s="24"/>
-      <c r="BQ77" s="24"/>
-      <c r="BR77" s="24"/>
-      <c r="BS77" s="24"/>
-      <c r="BT77" s="24"/>
-      <c r="BU77" s="24"/>
-      <c r="BV77" s="24"/>
-      <c r="BW77" s="24"/>
-      <c r="BX77" s="24"/>
-      <c r="BY77" s="24"/>
-      <c r="BZ77" s="24"/>
-      <c r="CA77" s="24"/>
-      <c r="CB77" s="24"/>
-      <c r="CC77" s="24"/>
-      <c r="CD77" s="24"/>
-      <c r="CE77" s="24"/>
-      <c r="CF77" s="24"/>
-      <c r="CG77" s="24"/>
-      <c r="CH77" s="24"/>
-      <c r="CI77" s="24"/>
-      <c r="CJ77" s="24"/>
-      <c r="CK77" s="24"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+      <c r="AG77"/>
+      <c r="AH77"/>
+      <c r="AI77"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
+      <c r="AL77"/>
+      <c r="AM77"/>
+      <c r="AN77"/>
+      <c r="AO77"/>
+      <c r="AP77"/>
+      <c r="AQ77"/>
+      <c r="AR77"/>
+      <c r="AS77"/>
+      <c r="AT77"/>
+      <c r="AU77"/>
+      <c r="AV77"/>
+      <c r="AW77"/>
+      <c r="AX77"/>
+      <c r="AY77"/>
+      <c r="AZ77"/>
+      <c r="BA77"/>
+      <c r="BB77"/>
+      <c r="BC77"/>
+      <c r="BD77"/>
+      <c r="BE77"/>
+      <c r="BF77"/>
+      <c r="BG77"/>
+      <c r="BH77"/>
+      <c r="BI77"/>
+      <c r="BJ77"/>
+      <c r="BK77"/>
+      <c r="BL77"/>
+      <c r="BM77"/>
+      <c r="BN77"/>
+      <c r="BO77"/>
+      <c r="BP77"/>
+      <c r="BQ77"/>
+      <c r="BR77"/>
+      <c r="BS77"/>
+      <c r="BT77"/>
+      <c r="BU77"/>
+      <c r="BV77"/>
+      <c r="BW77"/>
+      <c r="BX77"/>
+      <c r="BY77"/>
+      <c r="BZ77"/>
+      <c r="CA77"/>
+      <c r="CB77"/>
+      <c r="CC77"/>
+      <c r="CD77"/>
+      <c r="CE77"/>
+      <c r="CF77"/>
+      <c r="CG77"/>
+      <c r="CH77"/>
+      <c r="CI77"/>
+      <c r="CJ77"/>
+      <c r="CK77"/>
     </row>
     <row r="78" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="16" t="s">
@@ -3516,89 +3506,89 @@
       <c r="F78" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="24"/>
-      <c r="AI78" s="24"/>
-      <c r="AJ78" s="24"/>
-      <c r="AK78" s="24"/>
-      <c r="AL78" s="24"/>
-      <c r="AM78" s="24"/>
-      <c r="AN78" s="24"/>
-      <c r="AO78" s="24"/>
-      <c r="AP78" s="24"/>
-      <c r="AQ78" s="24"/>
-      <c r="AR78" s="24"/>
-      <c r="AS78" s="24"/>
-      <c r="AT78" s="24"/>
-      <c r="AU78" s="24"/>
-      <c r="AV78" s="24"/>
-      <c r="AW78" s="24"/>
-      <c r="AX78" s="24"/>
-      <c r="AY78" s="24"/>
-      <c r="AZ78" s="24"/>
-      <c r="BA78" s="24"/>
-      <c r="BB78" s="24"/>
-      <c r="BC78" s="24"/>
-      <c r="BD78" s="24"/>
-      <c r="BE78" s="24"/>
-      <c r="BF78" s="24"/>
-      <c r="BG78" s="24"/>
-      <c r="BH78" s="24"/>
-      <c r="BI78" s="24"/>
-      <c r="BJ78" s="24"/>
-      <c r="BK78" s="24"/>
-      <c r="BL78" s="24"/>
-      <c r="BM78" s="24"/>
-      <c r="BN78" s="24"/>
-      <c r="BO78" s="24"/>
-      <c r="BP78" s="24"/>
-      <c r="BQ78" s="24"/>
-      <c r="BR78" s="24"/>
-      <c r="BS78" s="24"/>
-      <c r="BT78" s="24"/>
-      <c r="BU78" s="24"/>
-      <c r="BV78" s="24"/>
-      <c r="BW78" s="24"/>
-      <c r="BX78" s="24"/>
-      <c r="BY78" s="24"/>
-      <c r="BZ78" s="24"/>
-      <c r="CA78" s="24"/>
-      <c r="CB78" s="24"/>
-      <c r="CC78" s="24"/>
-      <c r="CD78" s="24"/>
-      <c r="CE78" s="24"/>
-      <c r="CF78" s="24"/>
-      <c r="CG78" s="24"/>
-      <c r="CH78" s="24"/>
-      <c r="CI78" s="24"/>
-      <c r="CJ78" s="24"/>
-      <c r="CK78" s="24"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+      <c r="AG78"/>
+      <c r="AH78"/>
+      <c r="AI78"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
+      <c r="AL78"/>
+      <c r="AM78"/>
+      <c r="AN78"/>
+      <c r="AO78"/>
+      <c r="AP78"/>
+      <c r="AQ78"/>
+      <c r="AR78"/>
+      <c r="AS78"/>
+      <c r="AT78"/>
+      <c r="AU78"/>
+      <c r="AV78"/>
+      <c r="AW78"/>
+      <c r="AX78"/>
+      <c r="AY78"/>
+      <c r="AZ78"/>
+      <c r="BA78"/>
+      <c r="BB78"/>
+      <c r="BC78"/>
+      <c r="BD78"/>
+      <c r="BE78"/>
+      <c r="BF78"/>
+      <c r="BG78"/>
+      <c r="BH78"/>
+      <c r="BI78"/>
+      <c r="BJ78"/>
+      <c r="BK78"/>
+      <c r="BL78"/>
+      <c r="BM78"/>
+      <c r="BN78"/>
+      <c r="BO78"/>
+      <c r="BP78"/>
+      <c r="BQ78"/>
+      <c r="BR78"/>
+      <c r="BS78"/>
+      <c r="BT78"/>
+      <c r="BU78"/>
+      <c r="BV78"/>
+      <c r="BW78"/>
+      <c r="BX78"/>
+      <c r="BY78"/>
+      <c r="BZ78"/>
+      <c r="CA78"/>
+      <c r="CB78"/>
+      <c r="CC78"/>
+      <c r="CD78"/>
+      <c r="CE78"/>
+      <c r="CF78"/>
+      <c r="CG78"/>
+      <c r="CH78"/>
+      <c r="CI78"/>
+      <c r="CJ78"/>
+      <c r="CK78"/>
     </row>
     <row r="79" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="16" t="s">
@@ -3611,89 +3601,89 @@
       <c r="F79" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="24"/>
-      <c r="T79" s="24"/>
-      <c r="U79" s="24"/>
-      <c r="V79" s="24"/>
-      <c r="W79" s="24"/>
-      <c r="X79" s="24"/>
-      <c r="Y79" s="24"/>
-      <c r="Z79" s="24"/>
-      <c r="AA79" s="24"/>
-      <c r="AB79" s="24"/>
-      <c r="AC79" s="24"/>
-      <c r="AD79" s="24"/>
-      <c r="AE79" s="24"/>
-      <c r="AF79" s="24"/>
-      <c r="AG79" s="24"/>
-      <c r="AH79" s="24"/>
-      <c r="AI79" s="24"/>
-      <c r="AJ79" s="24"/>
-      <c r="AK79" s="24"/>
-      <c r="AL79" s="24"/>
-      <c r="AM79" s="24"/>
-      <c r="AN79" s="24"/>
-      <c r="AO79" s="24"/>
-      <c r="AP79" s="24"/>
-      <c r="AQ79" s="24"/>
-      <c r="AR79" s="24"/>
-      <c r="AS79" s="24"/>
-      <c r="AT79" s="24"/>
-      <c r="AU79" s="24"/>
-      <c r="AV79" s="24"/>
-      <c r="AW79" s="24"/>
-      <c r="AX79" s="24"/>
-      <c r="AY79" s="24"/>
-      <c r="AZ79" s="24"/>
-      <c r="BA79" s="24"/>
-      <c r="BB79" s="24"/>
-      <c r="BC79" s="24"/>
-      <c r="BD79" s="24"/>
-      <c r="BE79" s="24"/>
-      <c r="BF79" s="24"/>
-      <c r="BG79" s="24"/>
-      <c r="BH79" s="24"/>
-      <c r="BI79" s="24"/>
-      <c r="BJ79" s="24"/>
-      <c r="BK79" s="24"/>
-      <c r="BL79" s="24"/>
-      <c r="BM79" s="24"/>
-      <c r="BN79" s="24"/>
-      <c r="BO79" s="24"/>
-      <c r="BP79" s="24"/>
-      <c r="BQ79" s="24"/>
-      <c r="BR79" s="24"/>
-      <c r="BS79" s="24"/>
-      <c r="BT79" s="24"/>
-      <c r="BU79" s="24"/>
-      <c r="BV79" s="24"/>
-      <c r="BW79" s="24"/>
-      <c r="BX79" s="24"/>
-      <c r="BY79" s="24"/>
-      <c r="BZ79" s="24"/>
-      <c r="CA79" s="24"/>
-      <c r="CB79" s="24"/>
-      <c r="CC79" s="24"/>
-      <c r="CD79" s="24"/>
-      <c r="CE79" s="24"/>
-      <c r="CF79" s="24"/>
-      <c r="CG79" s="24"/>
-      <c r="CH79" s="24"/>
-      <c r="CI79" s="24"/>
-      <c r="CJ79" s="24"/>
-      <c r="CK79" s="24"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+      <c r="AG79"/>
+      <c r="AH79"/>
+      <c r="AI79"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
+      <c r="AL79"/>
+      <c r="AM79"/>
+      <c r="AN79"/>
+      <c r="AO79"/>
+      <c r="AP79"/>
+      <c r="AQ79"/>
+      <c r="AR79"/>
+      <c r="AS79"/>
+      <c r="AT79"/>
+      <c r="AU79"/>
+      <c r="AV79"/>
+      <c r="AW79"/>
+      <c r="AX79"/>
+      <c r="AY79"/>
+      <c r="AZ79"/>
+      <c r="BA79"/>
+      <c r="BB79"/>
+      <c r="BC79"/>
+      <c r="BD79"/>
+      <c r="BE79"/>
+      <c r="BF79"/>
+      <c r="BG79"/>
+      <c r="BH79"/>
+      <c r="BI79"/>
+      <c r="BJ79"/>
+      <c r="BK79"/>
+      <c r="BL79"/>
+      <c r="BM79"/>
+      <c r="BN79"/>
+      <c r="BO79"/>
+      <c r="BP79"/>
+      <c r="BQ79"/>
+      <c r="BR79"/>
+      <c r="BS79"/>
+      <c r="BT79"/>
+      <c r="BU79"/>
+      <c r="BV79"/>
+      <c r="BW79"/>
+      <c r="BX79"/>
+      <c r="BY79"/>
+      <c r="BZ79"/>
+      <c r="CA79"/>
+      <c r="CB79"/>
+      <c r="CC79"/>
+      <c r="CD79"/>
+      <c r="CE79"/>
+      <c r="CF79"/>
+      <c r="CG79"/>
+      <c r="CH79"/>
+      <c r="CI79"/>
+      <c r="CJ79"/>
+      <c r="CK79"/>
     </row>
     <row r="80" spans="1:89" s="18" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="19" t="s">
@@ -3706,89 +3696,89 @@
       <c r="F80" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-      <c r="AI80" s="24"/>
-      <c r="AJ80" s="24"/>
-      <c r="AK80" s="24"/>
-      <c r="AL80" s="24"/>
-      <c r="AM80" s="24"/>
-      <c r="AN80" s="24"/>
-      <c r="AO80" s="24"/>
-      <c r="AP80" s="24"/>
-      <c r="AQ80" s="24"/>
-      <c r="AR80" s="24"/>
-      <c r="AS80" s="24"/>
-      <c r="AT80" s="24"/>
-      <c r="AU80" s="24"/>
-      <c r="AV80" s="24"/>
-      <c r="AW80" s="24"/>
-      <c r="AX80" s="24"/>
-      <c r="AY80" s="24"/>
-      <c r="AZ80" s="24"/>
-      <c r="BA80" s="24"/>
-      <c r="BB80" s="24"/>
-      <c r="BC80" s="24"/>
-      <c r="BD80" s="24"/>
-      <c r="BE80" s="24"/>
-      <c r="BF80" s="24"/>
-      <c r="BG80" s="24"/>
-      <c r="BH80" s="24"/>
-      <c r="BI80" s="24"/>
-      <c r="BJ80" s="24"/>
-      <c r="BK80" s="24"/>
-      <c r="BL80" s="24"/>
-      <c r="BM80" s="24"/>
-      <c r="BN80" s="24"/>
-      <c r="BO80" s="24"/>
-      <c r="BP80" s="24"/>
-      <c r="BQ80" s="24"/>
-      <c r="BR80" s="24"/>
-      <c r="BS80" s="24"/>
-      <c r="BT80" s="24"/>
-      <c r="BU80" s="24"/>
-      <c r="BV80" s="24"/>
-      <c r="BW80" s="24"/>
-      <c r="BX80" s="24"/>
-      <c r="BY80" s="24"/>
-      <c r="BZ80" s="24"/>
-      <c r="CA80" s="24"/>
-      <c r="CB80" s="24"/>
-      <c r="CC80" s="24"/>
-      <c r="CD80" s="24"/>
-      <c r="CE80" s="24"/>
-      <c r="CF80" s="24"/>
-      <c r="CG80" s="24"/>
-      <c r="CH80" s="24"/>
-      <c r="CI80" s="24"/>
-      <c r="CJ80" s="24"/>
-      <c r="CK80" s="24"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+      <c r="AG80"/>
+      <c r="AH80"/>
+      <c r="AI80"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
+      <c r="AL80"/>
+      <c r="AM80"/>
+      <c r="AN80"/>
+      <c r="AO80"/>
+      <c r="AP80"/>
+      <c r="AQ80"/>
+      <c r="AR80"/>
+      <c r="AS80"/>
+      <c r="AT80"/>
+      <c r="AU80"/>
+      <c r="AV80"/>
+      <c r="AW80"/>
+      <c r="AX80"/>
+      <c r="AY80"/>
+      <c r="AZ80"/>
+      <c r="BA80"/>
+      <c r="BB80"/>
+      <c r="BC80"/>
+      <c r="BD80"/>
+      <c r="BE80"/>
+      <c r="BF80"/>
+      <c r="BG80"/>
+      <c r="BH80"/>
+      <c r="BI80"/>
+      <c r="BJ80"/>
+      <c r="BK80"/>
+      <c r="BL80"/>
+      <c r="BM80"/>
+      <c r="BN80"/>
+      <c r="BO80"/>
+      <c r="BP80"/>
+      <c r="BQ80"/>
+      <c r="BR80"/>
+      <c r="BS80"/>
+      <c r="BT80"/>
+      <c r="BU80"/>
+      <c r="BV80"/>
+      <c r="BW80"/>
+      <c r="BX80"/>
+      <c r="BY80"/>
+      <c r="BZ80"/>
+      <c r="CA80"/>
+      <c r="CB80"/>
+      <c r="CC80"/>
+      <c r="CD80"/>
+      <c r="CE80"/>
+      <c r="CF80"/>
+      <c r="CG80"/>
+      <c r="CH80"/>
+      <c r="CI80"/>
+      <c r="CJ80"/>
+      <c r="CK80"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B82" s="5"/>

--- a/development/metadata/SurveyColumnID.xlsx
+++ b/development/metadata/SurveyColumnID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylee\OneDrive\Desktop\REPOS\WildlifeHealthKAP\development\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylee\OneDrive\Desktop\REPOS\wildlifeBiologistKAP\development\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1350D-0188-4F9E-9EDA-EADECCBE3605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C02976A-7D86-487A-B910-58F9BFB64307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="0" windowWidth="10935" windowHeight="11512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="473" windowWidth="8100" windowHeight="10769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>GENDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36+ YEARS OLD = 1 </t>
   </si>
   <si>
     <t>YOUNGER</t>
@@ -765,6 +762,9 @@
       </rPr>
       <t xml:space="preserve"> century</t>
     </r>
+  </si>
+  <si>
+    <t>37 years or older</t>
   </si>
 </sst>
 </file>
@@ -942,41 +942,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1125,15 +1093,39 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1149,19 +1141,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B6662BA-5121-4AF4-8CEE-B7D98CC4A35D}" name="Table1" displayName="Table1" ref="A1:G80" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B6662BA-5121-4AF4-8CEE-B7D98CC4A35D}" name="Table1" displayName="Table1" ref="A1:G80" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:G80" xr:uid="{28725ECF-6729-48C9-AF9D-5AD9407099B7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G80">
-    <sortCondition sortBy="cellColor" ref="A1:A80" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="A1:A80" dxfId="8"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{5892098F-24C8-4B4A-B8A3-69A390B6EF42}" name="QUESTION" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="1" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{92ECA29B-647E-4683-8D50-36AE58DAB853}" name="0" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{15F32D82-8AF5-4831-9EBD-457C30C24F74}" name="FACTOR" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{BECAFA03-F6CF-485D-A7EE-4A5199F5F91C}" name="COLUMN" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{5892098F-24C8-4B4A-B8A3-69A390B6EF42}" name="QUESTION" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{40C95C49-D9C6-44CD-80F8-B9FD62741B86}" name="1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{92ECA29B-647E-4683-8D50-36AE58DAB853}" name="0" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{15F32D82-8AF5-4831-9EBD-457C30C24F74}" name="FACTOR" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{58736C71-6389-4C8D-8283-551D5F6B6C26}" name="LOGIC" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{AED41671-7BD6-48F1-808E-BAB3C33B6B8E}" name="DESCRIPTION" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1182,7 +1174,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A5EB4C7-7955-46C8-B082-15F77E62433C}" name="Table5" displayName="Table5" ref="B9:C15" totalsRowShown="0">
   <autoFilter ref="B9:C15" xr:uid="{7A5EB4C7-7955-46C8-B082-15F77E62433C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8D0436A-4A27-410C-B532-2A7F95695745}" name="Name" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C8D0436A-4A27-410C-B532-2A7F95695745}" name="Name" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{DE9BA3A9-20C6-483F-B09A-3EBC3866A095}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1454,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC7358D-37CF-4D2A-9AD6-44FF88E1519F}">
   <dimension ref="A1:CL90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1472,48 +1464,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1521,7 +1513,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -1533,12 +1525,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>95</v>
@@ -1556,12 +1548,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -1573,12 +1565,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -1595,7 +1587,7 @@
         <v>88</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -1607,12 +1599,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>81</v>
@@ -1630,12 +1622,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -1652,7 +1644,7 @@
         <v>82</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>81</v>
@@ -1670,12 +1662,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>75</v>
@@ -1693,12 +1685,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
@@ -1713,12 +1705,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1736,12 +1728,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1756,12 +1748,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1776,12 +1768,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1799,12 +1791,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="91.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>59</v>
@@ -1819,12 +1811,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>59</v>
@@ -1842,12 +1834,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>20</v>
@@ -1859,12 +1851,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="91.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -1882,12 +1874,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
@@ -1905,12 +1897,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -1928,12 +1920,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -1951,12 +1943,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
@@ -1974,12 +1966,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
@@ -1997,12 +1989,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -2020,12 +2012,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
@@ -2048,7 +2040,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -2066,12 +2058,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
@@ -2089,12 +2081,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="40.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>24</v>
@@ -2112,12 +2104,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>24</v>
@@ -2137,10 +2129,10 @@
     </row>
     <row r="32" spans="1:7" ht="40.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>24</v>
@@ -2158,12 +2150,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>24</v>
@@ -2181,12 +2173,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
@@ -2204,12 +2196,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="91.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>24</v>
@@ -2232,7 +2224,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
@@ -2250,12 +2242,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>24</v>
@@ -2273,12 +2265,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
@@ -2296,12 +2288,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>24</v>
@@ -2319,12 +2311,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>24</v>
@@ -2342,12 +2334,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>24</v>
@@ -2365,12 +2357,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>24</v>
@@ -2388,12 +2380,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>24</v>
@@ -2411,12 +2403,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>24</v>
@@ -2434,12 +2426,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="39.4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
@@ -2457,12 +2449,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>20</v>
@@ -2474,12 +2466,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>15</v>
@@ -2497,12 +2489,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
@@ -2520,12 +2512,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:90" ht="65.650000000000006" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:90" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
@@ -2545,10 +2537,10 @@
     </row>
     <row r="50" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -2568,10 +2560,10 @@
     </row>
     <row r="51" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
@@ -2591,10 +2583,10 @@
     </row>
     <row r="52" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
@@ -2614,10 +2606,10 @@
     </row>
     <row r="53" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -2637,10 +2629,10 @@
     </row>
     <row r="54" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
@@ -2660,10 +2652,10 @@
     </row>
     <row r="55" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -2683,10 +2675,10 @@
     </row>
     <row r="56" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -2706,10 +2698,10 @@
     </row>
     <row r="57" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -2729,10 +2721,10 @@
     </row>
     <row r="58" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -2752,10 +2744,10 @@
     </row>
     <row r="59" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2775,10 +2767,10 @@
     </row>
     <row r="60" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
@@ -2798,10 +2790,10 @@
     </row>
     <row r="61" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -2821,25 +2813,25 @@
     </row>
     <row r="62" spans="1:90" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="16"/>
@@ -2927,25 +2919,25 @@
     </row>
     <row r="63" spans="1:90" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
@@ -3033,13 +3025,13 @@
     </row>
     <row r="64" spans="1:90" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -3131,25 +3123,25 @@
     </row>
     <row r="65" spans="1:90" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
@@ -3237,25 +3229,25 @@
     </row>
     <row r="66" spans="1:90" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
@@ -3343,92 +3335,92 @@
     </row>
     <row r="67" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
       <c r="F67" s="4"/>
       <c r="G67" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="4"/>
       <c r="G68" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="4"/>
       <c r="G69" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="4"/>
       <c r="G70" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:90" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:90" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -3516,7 +3508,7 @@
     </row>
     <row r="73" spans="1:90" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="14"/>
@@ -3524,7 +3516,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
       <c r="G73" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
@@ -3612,7 +3604,7 @@
     </row>
     <row r="74" spans="1:90" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="14"/>
@@ -3620,7 +3612,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
@@ -3706,19 +3698,19 @@
       <c r="CK74" s="16"/>
       <c r="CL74" s="16"/>
     </row>
-    <row r="75" spans="1:90" s="21" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:90" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
@@ -3804,19 +3796,19 @@
       <c r="CK75" s="16"/>
       <c r="CL75" s="16"/>
     </row>
-    <row r="76" spans="1:90" s="25" customFormat="1" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:90" s="25" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
@@ -3902,19 +3894,19 @@
       <c r="CK76" s="16"/>
       <c r="CL76" s="16"/>
     </row>
-    <row r="77" spans="1:90" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:90" s="26" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
@@ -4000,19 +3992,19 @@
       <c r="CK77" s="16"/>
       <c r="CL77" s="16"/>
     </row>
-    <row r="78" spans="1:90" s="26" customFormat="1" ht="39.4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:90" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A78" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
@@ -4098,19 +4090,19 @@
       <c r="CK78" s="16"/>
       <c r="CL78" s="16"/>
     </row>
-    <row r="79" spans="1:90" s="26" customFormat="1" ht="78.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:90" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A79" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
@@ -4196,19 +4188,19 @@
       <c r="CK79" s="16"/>
       <c r="CL79" s="16"/>
     </row>
-    <row r="80" spans="1:90" s="26" customFormat="1" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:90" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A80" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
@@ -4358,50 +4350,50 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="10"/>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
         <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
@@ -4409,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
@@ -4417,15 +4409,15 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
@@ -4433,15 +4425,15 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
